--- a/EA.xlsx
+++ b/EA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6168569-9E4D-4ED1-A6D1-C0D91EB39A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03F52F1-FAC3-4EED-873B-4477AC97EC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{F089119D-C533-4882-8691-8919155D0128}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{F089119D-C533-4882-8691-8919155D0128}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="117">
   <si>
     <t>EA</t>
   </si>
@@ -384,7 +384,10 @@
     <t>Q425</t>
   </si>
   <si>
-    <t>FQ325</t>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FQ425</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -487,6 +490,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -825,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C422843-3A84-4BDD-8240-E5E287C18BF5}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -847,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="3">
-        <v>129.41999999999999</v>
+        <v>155.19999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -855,10 +859,10 @@
         <v>4</v>
       </c>
       <c r="I3" s="4">
-        <v>260.617594</v>
+        <v>257</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -870,7 +874,7 @@
       </c>
       <c r="I4" s="4">
         <f>+I2*I3</f>
-        <v>33729.129015479994</v>
+        <v>39886.399999999994</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -881,11 +885,11 @@
         <v>6</v>
       </c>
       <c r="I5" s="4">
-        <f>2900+362</f>
-        <v>3262</v>
+        <f>2136+112</f>
+        <v>2248</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -893,10 +897,11 @@
         <v>7</v>
       </c>
       <c r="I6" s="4">
-        <v>1882</v>
+        <f>400+1484</f>
+        <v>1884</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -905,7 +910,7 @@
       </c>
       <c r="I7" s="4">
         <f>+I4-I5+I6</f>
-        <v>32349.129015479994</v>
+        <v>39522.399999999994</v>
       </c>
     </row>
   </sheetData>
@@ -915,27 +920,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4891CA-32CA-49FD-A213-EA48F6993B0C}">
-  <dimension ref="A1:Z110"/>
+  <dimension ref="A1:AF110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N85" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z108" sqref="Z108"/>
+      <selection pane="bottomRight" activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
         <v>107</v>
       </c>
@@ -1006,8 +1011,11 @@
       <c r="Z2" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1057,7 +1065,9 @@
       <c r="Q3" s="2">
         <v>446</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="2">
+        <v>437</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2">
@@ -1079,7 +1089,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
@@ -1129,7 +1139,9 @@
       <c r="Q4" s="2">
         <v>153</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2">
@@ -1151,7 +1163,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>29</v>
       </c>
@@ -1217,7 +1229,7 @@
       </c>
       <c r="R5" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -1246,7 +1258,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1296,7 +1308,9 @@
       <c r="Q6" s="2">
         <v>1284</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="2">
+        <v>1458</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2">
@@ -1317,8 +1331,11 @@
       <c r="Z6" s="2">
         <v>5547</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA6" s="2">
+        <v>5461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
@@ -1379,7 +1396,9 @@
       <c r="Q7" s="13">
         <v>1883</v>
       </c>
-      <c r="R7" s="13"/>
+      <c r="R7" s="13">
+        <v>1895</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="13">
@@ -1406,8 +1425,16 @@
         <f>Z6+Z5</f>
         <v>7562</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA7" s="13">
+        <v>7463</v>
+      </c>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1457,7 +1484,9 @@
       <c r="Q8" s="2">
         <v>456</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2">
+        <v>368</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2">
@@ -1478,8 +1507,11 @@
       <c r="Z8" s="2">
         <v>1710</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA8" s="2">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1545,7 +1577,7 @@
       </c>
       <c r="R9" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1527</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -1573,8 +1605,12 @@
         <f>Z7-Z8</f>
         <v>5852</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA9" s="2">
+        <f>AA7-AA8</f>
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -1624,7 +1660,9 @@
       <c r="Q10" s="2">
         <v>606</v>
       </c>
-      <c r="R10" s="2"/>
+      <c r="R10" s="2">
+        <v>686</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2">
@@ -1645,8 +1683,11 @@
       <c r="Z10" s="2">
         <v>2420</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA10" s="2">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1696,7 +1737,9 @@
       <c r="Q11" s="2">
         <v>251</v>
       </c>
-      <c r="R11" s="2"/>
+      <c r="R11" s="2">
+        <v>234</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2">
@@ -1714,11 +1757,14 @@
       <c r="Y11" s="2">
         <v>978</v>
       </c>
-      <c r="Z11" s="13">
+      <c r="Z11" s="17">
         <v>1019</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA11" s="2">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1768,7 +1814,9 @@
       <c r="Q12" s="2">
         <v>176</v>
       </c>
-      <c r="R12" s="2"/>
+      <c r="R12" s="2">
+        <v>192</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2">
@@ -1789,8 +1837,11 @@
       <c r="Z12" s="2">
         <v>691</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA12" s="2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1840,7 +1891,9 @@
       <c r="Q13" s="2">
         <v>16</v>
       </c>
-      <c r="R13" s="2"/>
+      <c r="R13" s="2">
+        <v>17</v>
+      </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2">
@@ -1858,11 +1911,14 @@
       <c r="Y13" s="2">
         <v>158</v>
       </c>
-      <c r="Z13" s="13">
+      <c r="Z13" s="17">
         <v>142</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA13" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>37</v>
       </c>
@@ -1912,7 +1968,9 @@
       <c r="Q14" s="2">
         <v>0</v>
       </c>
-      <c r="R14" s="2"/>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2">
@@ -1933,8 +1991,11 @@
       <c r="Z14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1984,7 +2045,9 @@
       <c r="Q15" s="2">
         <v>1</v>
       </c>
-      <c r="R15" s="2"/>
+      <c r="R15" s="2">
+        <v>3</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2">
@@ -2002,11 +2065,14 @@
       <c r="Y15" s="2">
         <v>111</v>
       </c>
-      <c r="Z15" s="13">
+      <c r="Z15" s="17">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA15" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
@@ -2072,7 +2138,7 @@
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1132</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -2100,8 +2166,12 @@
         <f>SUM(Z10:Z15)</f>
         <v>4334</v>
       </c>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA16" s="2">
+        <f>SUM(AA10:AA15)</f>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
@@ -2150,7 +2220,7 @@
         <v>365</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" ref="N17:Q17" si="11">N9-N16</f>
+        <f t="shared" ref="N17:R17" si="11">N9-N16</f>
         <v>234</v>
       </c>
       <c r="O17" s="2">
@@ -2165,7 +2235,10 @@
         <f t="shared" si="11"/>
         <v>377</v>
       </c>
-      <c r="R17" s="2"/>
+      <c r="R17" s="2">
+        <f t="shared" si="11"/>
+        <v>395</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2">
@@ -2192,8 +2265,12 @@
         <f>Z9-Z16</f>
         <v>1518</v>
       </c>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA17" s="2">
+        <f>AA9-AA16</f>
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
@@ -2243,7 +2320,9 @@
       <c r="Q18" s="2">
         <v>28</v>
       </c>
-      <c r="R18" s="2"/>
+      <c r="R18" s="2">
+        <v>12</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2">
@@ -2264,8 +2343,11 @@
       <c r="Z18" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA18" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
@@ -2274,7 +2356,7 @@
         <v>308</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:Q19" si="14">D17+D18</f>
+        <f t="shared" ref="D19:R19" si="14">D17+D18</f>
         <v>326</v>
       </c>
       <c r="E19" s="2">
@@ -2329,7 +2411,10 @@
         <f t="shared" si="14"/>
         <v>405</v>
       </c>
-      <c r="R19" s="2"/>
+      <c r="R19" s="2">
+        <f t="shared" si="14"/>
+        <v>407</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2">
@@ -2356,8 +2441,12 @@
         <f>Z17+Z18</f>
         <v>1589</v>
       </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA19" s="2">
+        <f>AA17+AA18</f>
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
@@ -2407,7 +2496,9 @@
       <c r="Q20" s="2">
         <v>122</v>
       </c>
-      <c r="R20" s="2"/>
+      <c r="R20" s="2">
+        <v>153</v>
+      </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2">
@@ -2428,8 +2519,11 @@
       <c r="Z20" s="2">
         <v>316</v>
       </c>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA20" s="2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
@@ -2495,7 +2589,7 @@
       </c>
       <c r="R21" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -2523,8 +2617,12 @@
         <f>Z19-Z20</f>
         <v>1273</v>
       </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA21" s="2">
+        <f>AA19-AA20</f>
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2549,7 +2647,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>46</v>
       </c>
@@ -2602,9 +2700,9 @@
         <f>+Q21/Q24</f>
         <v>1.0801526717557253</v>
       </c>
-      <c r="R23" s="14" t="e">
+      <c r="R23" s="14">
         <f>+R21/R24</f>
-        <v>#DIV/0!</v>
+        <v>0.98832684824902728</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="15"/>
@@ -2627,8 +2725,12 @@
         <f>+Z21/Z24</f>
         <v>4.7148148148148152</v>
       </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA23" s="15">
+        <f>+AA21/AA24</f>
+        <v>4.278625954198473</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -2689,7 +2791,9 @@
       <c r="Q24" s="2">
         <v>262</v>
       </c>
-      <c r="R24" s="2"/>
+      <c r="R24" s="2">
+        <v>257</v>
+      </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2">
@@ -2715,8 +2819,11 @@
       <c r="Z24">
         <v>270</v>
       </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA24">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2741,7 +2848,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>47</v>
       </c>
@@ -2803,7 +2910,7 @@
       </c>
       <c r="R26" s="11">
         <f t="shared" si="20"/>
-        <v>-1</v>
+        <v>6.5205171444631782E-2</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
@@ -2830,8 +2937,12 @@
         <f>Z7/Y7-1</f>
         <v>1.8314031780231721E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA26" s="11">
+        <f>AA7/Z7-1</f>
+        <v>-1.3091774662787659E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>48</v>
       </c>
@@ -2893,7 +3004,7 @@
       </c>
       <c r="R27" s="11">
         <f t="shared" si="21"/>
-        <v>-1</v>
+        <v>0.64905660377358498</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
@@ -2901,7 +3012,7 @@
         <v>106</v>
       </c>
       <c r="V27" s="11">
-        <f t="shared" ref="V27:Z30" si="22">V3/U3-1</f>
+        <f t="shared" ref="V27:AA30" si="22">V3/U3-1</f>
         <v>0.19089574155653444</v>
       </c>
       <c r="W27" s="11">
@@ -2920,8 +3031,12 @@
         <f t="shared" si="22"/>
         <v>6.4183835182250348E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA27" s="11">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>49</v>
       </c>
@@ -3010,8 +3125,12 @@
         <f t="shared" si="22"/>
         <v>-4.4444444444444731E-3</v>
       </c>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA28" s="11">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>50</v>
       </c>
@@ -3073,7 +3192,7 @@
       </c>
       <c r="R29" s="11">
         <f t="shared" si="21"/>
-        <v>-1</v>
+        <v>0.31231231231231238</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
@@ -3100,8 +3219,12 @@
         <f t="shared" si="22"/>
         <v>4.0268456375838868E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA29" s="11">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>51</v>
       </c>
@@ -3163,7 +3286,7 @@
       </c>
       <c r="R30" s="11">
         <f t="shared" si="21"/>
-        <v>-1</v>
+        <v>8.2987551867219622E-3</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
@@ -3190,8 +3313,12 @@
         <f t="shared" si="22"/>
         <v>1.0566587720896248E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA30" s="11">
+        <f t="shared" si="22"/>
+        <v>-1.5503875968992276E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>52</v>
       </c>
@@ -3255,9 +3382,9 @@
         <f t="shared" si="23"/>
         <v>0.75783324482209236</v>
       </c>
-      <c r="R31" s="12" t="e">
+      <c r="R31" s="12">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>0.80580474934036939</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
@@ -3285,293 +3412,309 @@
         <f t="shared" si="24"/>
         <v>0.77386934673366836</v>
       </c>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA31" s="12">
+        <f t="shared" ref="AA31" si="25">AA9/AA7</f>
+        <v>0.79324668363928719</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="12">
-        <f t="shared" ref="C32:R32" si="25">C17/C7</f>
+        <f t="shared" ref="C32:R32" si="26">C17/C7</f>
         <v>0.2076079948420374</v>
       </c>
       <c r="D32" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.18619934282584885</v>
       </c>
       <c r="E32" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.7015092230296258E-2</v>
       </c>
       <c r="F32" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="G32" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.24957555178268251</v>
       </c>
       <c r="H32" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.22426470588235295</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.15364167995746944</v>
       </c>
       <c r="J32" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.3383137673425834E-2</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.28170478170478169</v>
       </c>
       <c r="L32" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.19696969696969696</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.18766066838046272</v>
       </c>
       <c r="N32" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.13153456998313659</v>
       </c>
       <c r="O32" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.21927710843373494</v>
       </c>
       <c r="P32" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.18962962962962962</v>
       </c>
       <c r="Q32" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.20021242697822622</v>
       </c>
-      <c r="R32" s="12" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+      <c r="R32" s="12">
+        <f t="shared" si="26"/>
+        <v>0.20844327176781002</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="12">
-        <f t="shared" ref="U32:Z32" si="26">U17/U7</f>
+        <f t="shared" ref="U32:Z32" si="27">U17/U7</f>
         <v>0.2012121212121212</v>
       </c>
       <c r="V32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.26097164529528627</v>
       </c>
       <c r="W32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.18582341446082787</v>
       </c>
       <c r="X32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.16149334859104564</v>
       </c>
       <c r="Y32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.17936978184756261</v>
       </c>
       <c r="Z32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.2007405448294102</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA32" s="12">
+        <f t="shared" ref="AA32" si="28">AA17/AA7</f>
+        <v>0.20367144579927643</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>54</v>
       </c>
       <c r="C33" s="12">
-        <f t="shared" ref="C33:R33" si="27">C20/C19</f>
+        <f t="shared" ref="C33:R33" si="29">C20/C19</f>
         <v>0.33766233766233766</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.815950920245399E-2</v>
       </c>
       <c r="E33" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.27472527472527475</v>
       </c>
       <c r="F33" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.36797752808988765</v>
       </c>
       <c r="G33" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.28669724770642202</v>
       </c>
       <c r="H33" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.29976580796252927</v>
       </c>
       <c r="I33" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.27659574468085107</v>
       </c>
       <c r="J33" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0662983425414365</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.27697841726618705</v>
       </c>
       <c r="L33" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-2.0460358056265986E-2</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.24083769633507854</v>
       </c>
       <c r="N33" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.3</v>
       </c>
       <c r="O33" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.28934010152284262</v>
       </c>
       <c r="P33" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="Q33" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.3012345679012346</v>
       </c>
-      <c r="R33" s="12" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="R33" s="12">
+        <f t="shared" si="29"/>
+        <v>0.37592137592137592</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="12">
-        <f t="shared" ref="U33:Z33" si="28">U20/U19</f>
+        <f t="shared" ref="U33:Z33" si="30">U20/U19</f>
         <v>5.5607043558850787E-2</v>
       </c>
       <c r="V33" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-1.0152519893899203</v>
       </c>
       <c r="W33" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.17699115044247787</v>
       </c>
       <c r="X33" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.27012025901942643</v>
       </c>
       <c r="Y33" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.39517345399698339</v>
       </c>
       <c r="Z33" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.19886721208307112</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA33" s="12">
+        <f t="shared" ref="AA33" si="31">AA20/AA19</f>
+        <v>0.30155763239875388</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="12">
-        <f t="shared" ref="C34:R34" si="29">C21/C7</f>
+        <f t="shared" ref="C34:R34" si="32">C21/C7</f>
         <v>0.13152804642166344</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.16100766703176342</v>
       </c>
       <c r="E34" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>3.6892118501956402E-2</v>
       </c>
       <c r="F34" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.12328767123287671</v>
       </c>
       <c r="G34" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.17600452744765138</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.15703781512605042</v>
       </c>
       <c r="I34" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.10845295055821372</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-6.4034151547491995E-3</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.20893970893970895</v>
       </c>
       <c r="L34" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.20846394984326019</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.14910025706940874</v>
       </c>
       <c r="N34" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.10230466554243957</v>
       </c>
       <c r="O34" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.16867469879518071</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.14518518518518519</v>
       </c>
       <c r="Q34" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.15029208709506106</v>
       </c>
-      <c r="R34" s="12" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+      <c r="R34" s="12">
+        <f t="shared" si="32"/>
+        <v>0.13403693931398417</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="12">
-        <f t="shared" ref="U34:Z34" si="30">U21/U7</f>
+        <f t="shared" ref="U34:Z34" si="33">U21/U7</f>
         <v>0.20585858585858585</v>
       </c>
       <c r="V34" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.54885316958641861</v>
       </c>
       <c r="W34" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.14869426185823414</v>
       </c>
       <c r="X34" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.11285939064511515</v>
       </c>
       <c r="Y34" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.10799892270401293</v>
       </c>
       <c r="Z34" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.16834170854271358</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA34" s="12">
+        <f t="shared" ref="AA34" si="34">AA21/AA7</f>
+        <v>0.15020769127696637</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -3596,7 +3739,7 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>56</v>
       </c>
@@ -3656,7 +3799,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>57</v>
       </c>
@@ -3716,7 +3859,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>58</v>
       </c>
@@ -3776,7 +3919,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>59</v>
       </c>
@@ -3836,52 +3979,52 @@
         <v>518</v>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C40" s="13">
-        <f t="shared" ref="C40:M40" si="31">SUM(C36:C39)</f>
+        <f t="shared" ref="C40:M40" si="35">SUM(C36:C39)</f>
         <v>4677</v>
       </c>
       <c r="D40" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>3390</v>
       </c>
       <c r="E40" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4358</v>
       </c>
       <c r="F40" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4151</v>
       </c>
       <c r="G40" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>3517</v>
       </c>
       <c r="H40" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>3442</v>
       </c>
       <c r="I40" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>3842</v>
       </c>
       <c r="J40" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>3969</v>
       </c>
       <c r="K40" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>3574</v>
       </c>
       <c r="L40" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>3844</v>
       </c>
       <c r="M40" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4349</v>
       </c>
       <c r="N40" s="2"/>
@@ -3892,19 +4035,19 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="13">
-        <f t="shared" ref="U40:X40" si="32">SUM(U36:U39)</f>
+        <f t="shared" ref="U40:X40" si="36">SUM(U36:U39)</f>
         <v>6381</v>
       </c>
       <c r="V40" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>6517</v>
       </c>
       <c r="W40" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7213</v>
       </c>
       <c r="X40" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4151</v>
       </c>
       <c r="Y40" s="13">
@@ -3912,7 +4055,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>61</v>
       </c>
@@ -3972,7 +4115,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>62</v>
       </c>
@@ -4032,7 +4175,7 @@
         <v>5380</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>63</v>
       </c>
@@ -4092,7 +4235,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>64</v>
       </c>
@@ -4152,7 +4295,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>65</v>
       </c>
@@ -4212,52 +4355,52 @@
         <v>481</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C46" s="13">
-        <f t="shared" ref="C46:M46" si="33">C40+SUM(C41:C45)</f>
+        <f t="shared" ref="C46:M46" si="37">C40+SUM(C41:C45)</f>
         <v>12734</v>
       </c>
       <c r="D46" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>13019</v>
       </c>
       <c r="E46" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>13930</v>
       </c>
       <c r="F46" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>13800</v>
       </c>
       <c r="G46" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>13192</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>13079</v>
       </c>
       <c r="I46" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>13470</v>
       </c>
       <c r="J46" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>13459</v>
       </c>
       <c r="K46" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>13083</v>
       </c>
       <c r="L46" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>13139</v>
       </c>
       <c r="M46" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>13617</v>
       </c>
       <c r="N46" s="2"/>
@@ -4268,19 +4411,19 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="13">
-        <f t="shared" ref="U46:X46" si="34">U40+SUM(U41:U45)</f>
+        <f t="shared" ref="U46:X46" si="38">U40+SUM(U41:U45)</f>
         <v>8957</v>
       </c>
       <c r="V46" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>11112</v>
       </c>
       <c r="W46" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>13288</v>
       </c>
       <c r="X46" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>13800</v>
       </c>
       <c r="Y46" s="13">
@@ -4288,7 +4431,7 @@
         <v>13459</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>67</v>
       </c>
@@ -4348,7 +4491,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>68</v>
       </c>
@@ -4533,47 +4676,47 @@
         <v>71</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" ref="C51:M51" si="35">SUM(C47:C50)</f>
+        <f t="shared" ref="C51:M51" si="39">SUM(C47:C50)</f>
         <v>2471</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2577</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>3630</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>3513</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2833</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2561</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>3113</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>3285</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2800</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2788</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>3280</v>
       </c>
       <c r="N51" s="2"/>
@@ -4584,19 +4727,19 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2">
-        <f t="shared" ref="U51:X51" si="36">SUM(U47:U50)</f>
+        <f t="shared" ref="U51:X51" si="40">SUM(U47:U50)</f>
         <v>2265</v>
       </c>
       <c r="V51" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>2664</v>
       </c>
       <c r="W51" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>2964</v>
       </c>
       <c r="X51" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3513</v>
       </c>
       <c r="Y51" s="2">
@@ -4849,47 +4992,47 @@
         <v>75</v>
       </c>
       <c r="C56" s="13">
-        <f t="shared" ref="C56:M56" si="37">C51+SUM(C52:C55)</f>
+        <f t="shared" ref="C56:M56" si="41">C51+SUM(C52:C55)</f>
         <v>5006</v>
       </c>
       <c r="D56" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>5163</v>
       </c>
       <c r="E56" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6313</v>
       </c>
       <c r="F56" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6175</v>
       </c>
       <c r="G56" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>5551</v>
       </c>
       <c r="H56" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>5281</v>
       </c>
       <c r="I56" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>5919</v>
       </c>
       <c r="J56" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6166</v>
       </c>
       <c r="K56" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>5749</v>
       </c>
       <c r="L56" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>5564</v>
       </c>
       <c r="M56" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6084</v>
       </c>
       <c r="N56" s="2"/>
@@ -4900,7 +5043,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
       <c r="U56" s="13">
-        <f t="shared" ref="U56:X56" si="38">U51+SUM(U52:U55)</f>
+        <f t="shared" ref="U56:X56" si="42">U51+SUM(U52:U55)</f>
         <v>3626</v>
       </c>
       <c r="V56" s="13">
@@ -4908,11 +5051,11 @@
         <v>3651</v>
       </c>
       <c r="W56" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>5448</v>
       </c>
       <c r="X56" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>6175</v>
       </c>
       <c r="Y56" s="13">
@@ -5285,47 +5428,47 @@
         <v>82</v>
       </c>
       <c r="C63" s="2">
-        <f t="shared" ref="C63:M63" si="39">SUM(C57:C62)</f>
+        <f t="shared" ref="C63:M63" si="43">SUM(C57:C62)</f>
         <v>7728</v>
       </c>
       <c r="D63" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>7856</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>7617</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>7625</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>7641</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>7798</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>7551</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>7293</v>
       </c>
       <c r="K63" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>7334</v>
       </c>
       <c r="L63" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>7575</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>7533</v>
       </c>
       <c r="N63" s="2"/>
@@ -5336,19 +5479,19 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2">
-        <f t="shared" ref="U63:X63" si="40">SUM(U57:U62)</f>
+        <f t="shared" ref="U63:X63" si="44">SUM(U57:U62)</f>
         <v>5331</v>
       </c>
       <c r="V63" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>7461</v>
       </c>
       <c r="W63" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>7840</v>
       </c>
       <c r="X63" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>7625</v>
       </c>
       <c r="Y63" s="2">
@@ -5361,47 +5504,47 @@
         <v>83</v>
       </c>
       <c r="C64" s="13">
-        <f t="shared" ref="C64:M64" si="41">C56+C63</f>
+        <f t="shared" ref="C64:M64" si="45">C56+C63</f>
         <v>12734</v>
       </c>
       <c r="D64" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>13019</v>
       </c>
       <c r="E64" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>13930</v>
       </c>
       <c r="F64" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>13800</v>
       </c>
       <c r="G64" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>13192</v>
       </c>
       <c r="H64" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>13079</v>
       </c>
       <c r="I64" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>13470</v>
       </c>
       <c r="J64" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>13459</v>
       </c>
       <c r="K64" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>13083</v>
       </c>
       <c r="L64" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>13139</v>
       </c>
       <c r="M64" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>13617</v>
       </c>
       <c r="N64" s="2"/>
@@ -5412,19 +5555,19 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="13">
-        <f t="shared" ref="U64:X64" si="42">U56+U63</f>
+        <f t="shared" ref="U64:X64" si="46">U56+U63</f>
         <v>8957</v>
       </c>
       <c r="V64" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>11112</v>
       </c>
       <c r="W64" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>13288</v>
       </c>
       <c r="X64" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>13800</v>
       </c>
       <c r="Y64" s="13">
@@ -5750,19 +5893,19 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
       <c r="U77" s="13">
-        <f t="shared" ref="U77:X77" si="43">SUM(U66:U76)</f>
+        <f t="shared" ref="U77:X77" si="47">SUM(U66:U76)</f>
         <v>1547</v>
       </c>
       <c r="V77" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1797</v>
       </c>
       <c r="W77" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1941</v>
       </c>
       <c r="X77" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1899</v>
       </c>
       <c r="Y77" s="13">
@@ -5890,19 +6033,19 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="13">
-        <f t="shared" ref="U82:X82" si="44">SUM(U78:U81)</f>
+        <f t="shared" ref="U82:X82" si="48">SUM(U78:U81)</f>
         <v>169</v>
       </c>
       <c r="V82" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>-1357</v>
       </c>
       <c r="W82" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>-505</v>
       </c>
       <c r="X82" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>-2804</v>
       </c>
       <c r="Y82" s="13">
@@ -6198,19 +6341,19 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
       <c r="U94" s="13">
-        <f t="shared" ref="U94:X94" si="45">U77+U82+U90+U92</f>
+        <f t="shared" ref="U94:X94" si="49">U77+U82+U90+U92</f>
         <v>450</v>
       </c>
       <c r="V94" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>-940</v>
       </c>
       <c r="W94" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1499</v>
       </c>
       <c r="X94" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>-2528</v>
       </c>
       <c r="Y94" s="13">

--- a/EA.xlsx
+++ b/EA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03F52F1-FAC3-4EED-873B-4477AC97EC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DF4426-6AB0-436C-BE28-29E19959639F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{F089119D-C533-4882-8691-8919155D0128}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{F089119D-C533-4882-8691-8919155D0128}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -490,7 +490,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -829,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C422843-3A84-4BDD-8240-E5E287C18BF5}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="3">
-        <v>155.19999999999999</v>
+        <v>148.77000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -874,7 +873,7 @@
       </c>
       <c r="I4" s="4">
         <f>+I2*I3</f>
-        <v>39886.399999999994</v>
+        <v>38233.89</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -910,7 +909,7 @@
       </c>
       <c r="I7" s="4">
         <f>+I4-I5+I6</f>
-        <v>39522.399999999994</v>
+        <v>37869.89</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +1756,7 @@
       <c r="Y11" s="2">
         <v>978</v>
       </c>
-      <c r="Z11" s="17">
+      <c r="Z11" s="2">
         <v>1019</v>
       </c>
       <c r="AA11" s="2">
@@ -1911,7 +1910,7 @@
       <c r="Y13" s="2">
         <v>158</v>
       </c>
-      <c r="Z13" s="17">
+      <c r="Z13" s="2">
         <v>142</v>
       </c>
       <c r="AA13" s="2">
@@ -2065,7 +2064,7 @@
       <c r="Y15" s="2">
         <v>111</v>
       </c>
-      <c r="Z15" s="17">
+      <c r="Z15" s="2">
         <v>62</v>
       </c>
       <c r="AA15" s="2">
@@ -2918,27 +2917,27 @@
         <v>106</v>
       </c>
       <c r="V26" s="11">
-        <f>V7/U7-1</f>
+        <f t="shared" ref="V26:AA26" si="21">V7/U7-1</f>
         <v>0.11858585858585857</v>
       </c>
       <c r="W26" s="11">
-        <f>W7/V7-1</f>
+        <f t="shared" si="21"/>
         <v>1.6615495755824439E-2</v>
       </c>
       <c r="X26" s="11">
-        <f>X7/W7-1</f>
+        <f t="shared" si="21"/>
         <v>0.24196127198436668</v>
       </c>
       <c r="Y26" s="11">
-        <f>Y7/X7-1</f>
+        <f t="shared" si="21"/>
         <v>6.2222857960234634E-2</v>
       </c>
       <c r="Z26" s="11">
-        <f>Z7/Y7-1</f>
+        <f t="shared" si="21"/>
         <v>1.8314031780231721E-2</v>
       </c>
       <c r="AA26" s="11">
-        <f>AA7/Z7-1</f>
+        <f t="shared" si="21"/>
         <v>-1.3091774662787659E-2</v>
       </c>
     </row>
@@ -2959,51 +2958,51 @@
         <v>106</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" ref="G27:R30" si="21">+G3/C3-1</f>
+        <f t="shared" ref="G27:R30" si="22">+G3/C3-1</f>
         <v>1.716738197424883E-2</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-2.6706231454005969E-2</v>
       </c>
       <c r="I27" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.7500000000000107E-2</v>
       </c>
       <c r="J27" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.12179487179487181</v>
       </c>
       <c r="K27" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.27004219409282704</v>
       </c>
       <c r="L27" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.4878048780487854E-2</v>
       </c>
       <c r="M27" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.891252955082745E-2</v>
       </c>
       <c r="N27" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-3.2846715328467169E-2</v>
       </c>
       <c r="O27" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.3687707641196013</v>
       </c>
       <c r="P27" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.37283236994219648</v>
       </c>
       <c r="Q27" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.4802784222737859E-2</v>
       </c>
       <c r="R27" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.64905660377358498</v>
       </c>
       <c r="S27" s="2"/>
@@ -3012,27 +3011,27 @@
         <v>106</v>
       </c>
       <c r="V27" s="11">
-        <f t="shared" ref="V27:AA30" si="22">V3/U3-1</f>
+        <f t="shared" ref="V27:AA30" si="23">V3/U3-1</f>
         <v>0.19089574155653444</v>
       </c>
       <c r="W27" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.13193588162762016</v>
       </c>
       <c r="X27" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.39651416122004357</v>
       </c>
       <c r="Y27" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1.5600624024960985E-2</v>
       </c>
       <c r="Z27" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.4183835182250348E-2</v>
       </c>
       <c r="AA27" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
     </row>
@@ -3053,51 +3052,51 @@
         <v>106</v>
       </c>
       <c r="G28" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.1685393258426966</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-2.1428571428571463E-2</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-7.870370370370372E-2</v>
       </c>
       <c r="J28" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.22222222222222221</v>
       </c>
       <c r="K28" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.36538461538461542</v>
       </c>
       <c r="L28" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.6496350364962904E-3</v>
       </c>
       <c r="M28" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-6.0301507537688481E-2</v>
       </c>
       <c r="N28" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.30612244897959184</v>
       </c>
       <c r="O28" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.57746478873239437</v>
       </c>
       <c r="P28" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.12363636363636366</v>
       </c>
       <c r="Q28" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.18181818181818177</v>
       </c>
       <c r="R28" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="S28" s="2"/>
@@ -3106,27 +3105,27 @@
         <v>106</v>
       </c>
       <c r="V28" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-3.2374100719424481E-2</v>
       </c>
       <c r="W28" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.35408921933085502</v>
       </c>
       <c r="X28" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.302158273381294E-2</v>
       </c>
       <c r="Y28" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-5.0632911392405111E-2</v>
       </c>
       <c r="Z28" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-4.4444444444444731E-3</v>
       </c>
       <c r="AA28" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
     </row>
@@ -3147,51 +3146,51 @@
         <v>106</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.9006211180124168E-2</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-2.4311183144246407E-2</v>
       </c>
       <c r="I29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9.7402597402598268E-3</v>
       </c>
       <c r="J29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.15068493150684936</v>
       </c>
       <c r="K29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.29912023460410553</v>
       </c>
       <c r="L29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.1561461794019863E-2</v>
       </c>
       <c r="M29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-6.4308681672026191E-3</v>
       </c>
       <c r="N29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.10483870967741937</v>
       </c>
       <c r="O29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.43566591422121892</v>
       </c>
       <c r="P29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.1529790660225443</v>
       </c>
       <c r="Q29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-3.0744336569579311E-2</v>
       </c>
       <c r="R29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.31231231231231238</v>
       </c>
       <c r="S29" s="2"/>
@@ -3200,27 +3199,27 @@
         <v>106</v>
       </c>
       <c r="V29" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.2426101505856026E-2</v>
       </c>
       <c r="W29" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.14520402755696871</v>
       </c>
       <c r="X29" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.23558586484810906</v>
       </c>
       <c r="Y29" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-2.8098344204716463E-2</v>
       </c>
       <c r="Z29" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.0268456375838868E-2</v>
       </c>
       <c r="AA29" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
     </row>
@@ -3241,51 +3240,51 @@
         <v>106</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.16029292107404403</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.6923076923076872E-2</v>
       </c>
       <c r="I30" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.3316283034953189E-2</v>
       </c>
       <c r="J30" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8.2912761355443454E-2</v>
       </c>
       <c r="K30" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.8569424964936871E-2</v>
       </c>
       <c r="L30" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-6.9124423963133896E-3</v>
       </c>
       <c r="M30" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.4011119936457463E-2</v>
       </c>
       <c r="N30" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-3.7283621837549963E-2</v>
       </c>
       <c r="O30" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-4.7940580688723866E-2</v>
       </c>
       <c r="P30" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.2374323279195742E-2</v>
       </c>
       <c r="Q30" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-3.240391861341374E-2</v>
       </c>
       <c r="R30" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8.2987551867219622E-3</v>
       </c>
       <c r="S30" s="2"/>
@@ -3294,27 +3293,27 @@
         <v>106</v>
       </c>
       <c r="V30" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.15616091225847328</v>
       </c>
       <c r="W30" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.10027397260273974</v>
       </c>
       <c r="X30" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.2445219123505975</v>
       </c>
       <c r="Y30" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.8239295718287378E-2</v>
       </c>
       <c r="Z30" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0566587720896248E-2</v>
       </c>
       <c r="AA30" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1.5503875968992276E-2</v>
       </c>
     </row>
@@ -3323,97 +3322,97 @@
         <v>52</v>
       </c>
       <c r="C31" s="12">
-        <f t="shared" ref="C31:R31" si="23">C9/C7</f>
+        <f t="shared" ref="C31:R31" si="24">C9/C7</f>
         <v>0.79690522243713735</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.72946330777656077</v>
       </c>
       <c r="E31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.64728898826159864</v>
       </c>
       <c r="F31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.7704109589041096</v>
       </c>
       <c r="G31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.82229767968307865</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.75735294117647056</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.69803296119085589</v>
       </c>
       <c r="J31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.76093916755602986</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.80873180873180872</v>
       </c>
       <c r="L31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.76175548589341691</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.72802056555269923</v>
       </c>
       <c r="N31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.79932546374367619</v>
       </c>
       <c r="O31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.84156626506024101</v>
       </c>
       <c r="P31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.77481481481481485</v>
       </c>
       <c r="Q31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.75783324482209236</v>
       </c>
       <c r="R31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.80580474934036939</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="12">
-        <f t="shared" ref="U31:Z31" si="24">U9/U7</f>
+        <f t="shared" ref="U31:Z31" si="25">U9/U7</f>
         <v>0.73292929292929287</v>
       </c>
       <c r="V31" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.75275419902474261</v>
       </c>
       <c r="W31" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.7345887368982057</v>
       </c>
       <c r="X31" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.73408668287798595</v>
       </c>
       <c r="Y31" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.75868569889577164</v>
       </c>
       <c r="Z31" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.77386934673366836</v>
       </c>
       <c r="AA31" s="12">
-        <f t="shared" ref="AA31" si="25">AA9/AA7</f>
+        <f t="shared" ref="AA31" si="26">AA9/AA7</f>
         <v>0.79324668363928719</v>
       </c>
     </row>
@@ -3422,97 +3421,97 @@
         <v>53</v>
       </c>
       <c r="C32" s="12">
-        <f t="shared" ref="C32:R32" si="26">C17/C7</f>
+        <f t="shared" ref="C32:R32" si="27">C17/C7</f>
         <v>0.2076079948420374</v>
       </c>
       <c r="D32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.18619934282584885</v>
       </c>
       <c r="E32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.7015092230296258E-2</v>
       </c>
       <c r="F32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.2</v>
       </c>
       <c r="G32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.24957555178268251</v>
       </c>
       <c r="H32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.22426470588235295</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.15364167995746944</v>
       </c>
       <c r="J32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.3383137673425834E-2</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.28170478170478169</v>
       </c>
       <c r="L32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.19696969696969696</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.18766066838046272</v>
       </c>
       <c r="N32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.13153456998313659</v>
       </c>
       <c r="O32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.21927710843373494</v>
       </c>
       <c r="P32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.18962962962962962</v>
       </c>
       <c r="Q32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.20021242697822622</v>
       </c>
       <c r="R32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.20844327176781002</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="12">
-        <f t="shared" ref="U32:Z32" si="27">U17/U7</f>
+        <f t="shared" ref="U32:Z32" si="28">U17/U7</f>
         <v>0.2012121212121212</v>
       </c>
       <c r="V32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.26097164529528627</v>
       </c>
       <c r="W32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.18582341446082787</v>
       </c>
       <c r="X32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.16149334859104564</v>
       </c>
       <c r="Y32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.17936978184756261</v>
       </c>
       <c r="Z32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.2007405448294102</v>
       </c>
       <c r="AA32" s="12">
-        <f t="shared" ref="AA32" si="28">AA17/AA7</f>
+        <f t="shared" ref="AA32" si="29">AA17/AA7</f>
         <v>0.20367144579927643</v>
       </c>
     </row>
@@ -3521,97 +3520,97 @@
         <v>54</v>
       </c>
       <c r="C33" s="12">
-        <f t="shared" ref="C33:R33" si="29">C20/C19</f>
+        <f t="shared" ref="C33:R33" si="30">C20/C19</f>
         <v>0.33766233766233766</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>9.815950920245399E-2</v>
       </c>
       <c r="E33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.27472527472527475</v>
       </c>
       <c r="F33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.36797752808988765</v>
       </c>
       <c r="G33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.28669724770642202</v>
       </c>
       <c r="H33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.29976580796252927</v>
       </c>
       <c r="I33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.27659574468085107</v>
       </c>
       <c r="J33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.0662983425414365</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.27697841726618705</v>
       </c>
       <c r="L33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-2.0460358056265986E-2</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.24083769633507854</v>
       </c>
       <c r="N33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.3</v>
       </c>
       <c r="O33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.28934010152284262</v>
       </c>
       <c r="P33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="Q33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.3012345679012346</v>
       </c>
       <c r="R33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.37592137592137592</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="12">
-        <f t="shared" ref="U33:Z33" si="30">U20/U19</f>
+        <f t="shared" ref="U33:Z33" si="31">U20/U19</f>
         <v>5.5607043558850787E-2</v>
       </c>
       <c r="V33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.0152519893899203</v>
       </c>
       <c r="W33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.17699115044247787</v>
       </c>
       <c r="X33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.27012025901942643</v>
       </c>
       <c r="Y33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.39517345399698339</v>
       </c>
       <c r="Z33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.19886721208307112</v>
       </c>
       <c r="AA33" s="12">
-        <f t="shared" ref="AA33" si="31">AA20/AA19</f>
+        <f t="shared" ref="AA33" si="32">AA20/AA19</f>
         <v>0.30155763239875388</v>
       </c>
     </row>
@@ -3620,97 +3619,97 @@
         <v>55</v>
       </c>
       <c r="C34" s="12">
-        <f t="shared" ref="C34:R34" si="32">C21/C7</f>
+        <f t="shared" ref="C34:R34" si="33">C21/C7</f>
         <v>0.13152804642166344</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.16100766703176342</v>
       </c>
       <c r="E34" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.6892118501956402E-2</v>
       </c>
       <c r="F34" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.12328767123287671</v>
       </c>
       <c r="G34" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.17600452744765138</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.15703781512605042</v>
       </c>
       <c r="I34" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.10845295055821372</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-6.4034151547491995E-3</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.20893970893970895</v>
       </c>
       <c r="L34" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.20846394984326019</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.14910025706940874</v>
       </c>
       <c r="N34" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.10230466554243957</v>
       </c>
       <c r="O34" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.16867469879518071</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.14518518518518519</v>
       </c>
       <c r="Q34" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.15029208709506106</v>
       </c>
       <c r="R34" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.13403693931398417</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="12">
-        <f t="shared" ref="U34:Z34" si="33">U21/U7</f>
+        <f t="shared" ref="U34:Z34" si="34">U21/U7</f>
         <v>0.20585858585858585</v>
       </c>
       <c r="V34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.54885316958641861</v>
       </c>
       <c r="W34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.14869426185823414</v>
       </c>
       <c r="X34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.11285939064511515</v>
       </c>
       <c r="Y34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.10799892270401293</v>
       </c>
       <c r="Z34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.16834170854271358</v>
       </c>
       <c r="AA34" s="12">
-        <f t="shared" ref="AA34" si="34">AA21/AA7</f>
+        <f t="shared" ref="AA34" si="35">AA21/AA7</f>
         <v>0.15020769127696637</v>
       </c>
     </row>
@@ -3984,47 +3983,47 @@
         <v>60</v>
       </c>
       <c r="C40" s="13">
-        <f t="shared" ref="C40:M40" si="35">SUM(C36:C39)</f>
+        <f t="shared" ref="C40:M40" si="36">SUM(C36:C39)</f>
         <v>4677</v>
       </c>
       <c r="D40" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3390</v>
       </c>
       <c r="E40" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4358</v>
       </c>
       <c r="F40" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4151</v>
       </c>
       <c r="G40" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3517</v>
       </c>
       <c r="H40" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3442</v>
       </c>
       <c r="I40" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3842</v>
       </c>
       <c r="J40" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3969</v>
       </c>
       <c r="K40" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3574</v>
       </c>
       <c r="L40" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3844</v>
       </c>
       <c r="M40" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4349</v>
       </c>
       <c r="N40" s="2"/>
@@ -4035,19 +4034,19 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="13">
-        <f t="shared" ref="U40:X40" si="36">SUM(U36:U39)</f>
+        <f t="shared" ref="U40:X40" si="37">SUM(U36:U39)</f>
         <v>6381</v>
       </c>
       <c r="V40" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>6517</v>
       </c>
       <c r="W40" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>7213</v>
       </c>
       <c r="X40" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>4151</v>
       </c>
       <c r="Y40" s="13">
@@ -4360,47 +4359,47 @@
         <v>66</v>
       </c>
       <c r="C46" s="13">
-        <f t="shared" ref="C46:M46" si="37">C40+SUM(C41:C45)</f>
+        <f t="shared" ref="C46:M46" si="38">C40+SUM(C41:C45)</f>
         <v>12734</v>
       </c>
       <c r="D46" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13019</v>
       </c>
       <c r="E46" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13930</v>
       </c>
       <c r="F46" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13800</v>
       </c>
       <c r="G46" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13192</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13079</v>
       </c>
       <c r="I46" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13470</v>
       </c>
       <c r="J46" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13459</v>
       </c>
       <c r="K46" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13083</v>
       </c>
       <c r="L46" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13139</v>
       </c>
       <c r="M46" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13617</v>
       </c>
       <c r="N46" s="2"/>
@@ -4411,19 +4410,19 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="13">
-        <f t="shared" ref="U46:X46" si="38">U40+SUM(U41:U45)</f>
+        <f t="shared" ref="U46:X46" si="39">U40+SUM(U41:U45)</f>
         <v>8957</v>
       </c>
       <c r="V46" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>11112</v>
       </c>
       <c r="W46" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>13288</v>
       </c>
       <c r="X46" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>13800</v>
       </c>
       <c r="Y46" s="13">
@@ -4676,47 +4675,47 @@
         <v>71</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" ref="C51:M51" si="39">SUM(C47:C50)</f>
+        <f t="shared" ref="C51:M51" si="40">SUM(C47:C50)</f>
         <v>2471</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2577</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>3630</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>3513</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2833</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2561</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>3113</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>3285</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2800</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2788</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>3280</v>
       </c>
       <c r="N51" s="2"/>
@@ -4727,19 +4726,19 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2">
-        <f t="shared" ref="U51:X51" si="40">SUM(U47:U50)</f>
+        <f t="shared" ref="U51:X51" si="41">SUM(U47:U50)</f>
         <v>2265</v>
       </c>
       <c r="V51" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2664</v>
       </c>
       <c r="W51" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2964</v>
       </c>
       <c r="X51" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3513</v>
       </c>
       <c r="Y51" s="2">
@@ -4992,47 +4991,47 @@
         <v>75</v>
       </c>
       <c r="C56" s="13">
-        <f t="shared" ref="C56:M56" si="41">C51+SUM(C52:C55)</f>
+        <f t="shared" ref="C56:M56" si="42">C51+SUM(C52:C55)</f>
         <v>5006</v>
       </c>
       <c r="D56" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5163</v>
       </c>
       <c r="E56" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6313</v>
       </c>
       <c r="F56" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6175</v>
       </c>
       <c r="G56" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5551</v>
       </c>
       <c r="H56" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5281</v>
       </c>
       <c r="I56" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5919</v>
       </c>
       <c r="J56" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6166</v>
       </c>
       <c r="K56" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5749</v>
       </c>
       <c r="L56" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5564</v>
       </c>
       <c r="M56" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6084</v>
       </c>
       <c r="N56" s="2"/>
@@ -5043,7 +5042,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
       <c r="U56" s="13">
-        <f t="shared" ref="U56:X56" si="42">U51+SUM(U52:U55)</f>
+        <f t="shared" ref="U56:X56" si="43">U51+SUM(U52:U55)</f>
         <v>3626</v>
       </c>
       <c r="V56" s="13">
@@ -5051,11 +5050,11 @@
         <v>3651</v>
       </c>
       <c r="W56" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>5448</v>
       </c>
       <c r="X56" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>6175</v>
       </c>
       <c r="Y56" s="13">
@@ -5428,47 +5427,47 @@
         <v>82</v>
       </c>
       <c r="C63" s="2">
-        <f t="shared" ref="C63:M63" si="43">SUM(C57:C62)</f>
+        <f t="shared" ref="C63:M63" si="44">SUM(C57:C62)</f>
         <v>7728</v>
       </c>
       <c r="D63" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7856</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7617</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7625</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7641</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7798</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7551</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7293</v>
       </c>
       <c r="K63" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7334</v>
       </c>
       <c r="L63" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7575</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7533</v>
       </c>
       <c r="N63" s="2"/>
@@ -5479,19 +5478,19 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2">
-        <f t="shared" ref="U63:X63" si="44">SUM(U57:U62)</f>
+        <f t="shared" ref="U63:X63" si="45">SUM(U57:U62)</f>
         <v>5331</v>
       </c>
       <c r="V63" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>7461</v>
       </c>
       <c r="W63" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>7840</v>
       </c>
       <c r="X63" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>7625</v>
       </c>
       <c r="Y63" s="2">
@@ -5504,47 +5503,47 @@
         <v>83</v>
       </c>
       <c r="C64" s="13">
-        <f t="shared" ref="C64:M64" si="45">C56+C63</f>
+        <f t="shared" ref="C64:M64" si="46">C56+C63</f>
         <v>12734</v>
       </c>
       <c r="D64" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13019</v>
       </c>
       <c r="E64" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13930</v>
       </c>
       <c r="F64" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13800</v>
       </c>
       <c r="G64" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13192</v>
       </c>
       <c r="H64" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13079</v>
       </c>
       <c r="I64" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13470</v>
       </c>
       <c r="J64" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13459</v>
       </c>
       <c r="K64" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13083</v>
       </c>
       <c r="L64" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13139</v>
       </c>
       <c r="M64" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13617</v>
       </c>
       <c r="N64" s="2"/>
@@ -5555,19 +5554,19 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="13">
-        <f t="shared" ref="U64:X64" si="46">U56+U63</f>
+        <f t="shared" ref="U64:X64" si="47">U56+U63</f>
         <v>8957</v>
       </c>
       <c r="V64" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>11112</v>
       </c>
       <c r="W64" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>13288</v>
       </c>
       <c r="X64" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>13800</v>
       </c>
       <c r="Y64" s="13">
@@ -5893,19 +5892,19 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
       <c r="U77" s="13">
-        <f t="shared" ref="U77:X77" si="47">SUM(U66:U76)</f>
+        <f t="shared" ref="U77:X77" si="48">SUM(U66:U76)</f>
         <v>1547</v>
       </c>
       <c r="V77" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1797</v>
       </c>
       <c r="W77" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1941</v>
       </c>
       <c r="X77" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1899</v>
       </c>
       <c r="Y77" s="13">
@@ -6033,19 +6032,19 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="13">
-        <f t="shared" ref="U82:X82" si="48">SUM(U78:U81)</f>
+        <f t="shared" ref="U82:X82" si="49">SUM(U78:U81)</f>
         <v>169</v>
       </c>
       <c r="V82" s="13">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-1357</v>
       </c>
       <c r="W82" s="13">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-505</v>
       </c>
       <c r="X82" s="13">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-2804</v>
       </c>
       <c r="Y82" s="13">
@@ -6341,19 +6340,19 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
       <c r="U94" s="13">
-        <f t="shared" ref="U94:X94" si="49">U77+U82+U90+U92</f>
+        <f t="shared" ref="U94:X94" si="50">U77+U82+U90+U92</f>
         <v>450</v>
       </c>
       <c r="V94" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-940</v>
       </c>
       <c r="W94" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1499</v>
       </c>
       <c r="X94" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-2528</v>
       </c>
       <c r="Y94" s="13">

--- a/EA.xlsx
+++ b/EA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DF4426-6AB0-436C-BE28-29E19959639F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA91B9C-180E-4CA4-8787-BE6777A759FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{F089119D-C533-4882-8691-8919155D0128}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{F089119D-C533-4882-8691-8919155D0128}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="121">
   <si>
     <t>EA</t>
   </si>
@@ -387,7 +387,19 @@
     <t>FY25</t>
   </si>
   <si>
-    <t>FQ425</t>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
+  <si>
+    <t>FQ126</t>
   </si>
 </sst>
 </file>
@@ -828,9 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C422843-3A84-4BDD-8240-E5E287C18BF5}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -850,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="3">
-        <v>148.77000000000001</v>
+        <v>173.3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -858,10 +868,10 @@
         <v>4</v>
       </c>
       <c r="I3" s="4">
-        <v>257</v>
+        <v>250.207303</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -873,7 +883,7 @@
       </c>
       <c r="I4" s="4">
         <f>+I2*I3</f>
-        <v>38233.89</v>
+        <v>43360.925609900005</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -884,11 +894,11 @@
         <v>6</v>
       </c>
       <c r="I5" s="4">
-        <f>2136+112</f>
-        <v>2248</v>
+        <f>1518+112</f>
+        <v>1630</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -896,11 +906,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="4">
-        <f>400+1484</f>
-        <v>1884</v>
+        <v>400</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -909,7 +918,7 @@
       </c>
       <c r="I7" s="4">
         <f>+I4-I5+I6</f>
-        <v>37869.89</v>
+        <v>42130.925609900005</v>
       </c>
     </row>
   </sheetData>
@@ -919,13 +928,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4891CA-32CA-49FD-A213-EA48F6993B0C}">
-  <dimension ref="A1:AF110"/>
+  <dimension ref="A1:AJ110"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA4" sqref="AA4"/>
+      <selection pane="bottomRight" activeCell="S26" sqref="A26:S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,12 +943,12 @@
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
         <v>107</v>
       </c>
@@ -988,33 +997,45 @@
       <c r="R2" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="T2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1052,7 +1073,7 @@
         <v>431</v>
       </c>
       <c r="N3" s="2">
-        <f>+Z3-SUM(K3:M3)</f>
+        <f>+AD3-SUM(K3:M3)</f>
         <v>265</v>
       </c>
       <c r="O3" s="2">
@@ -1067,28 +1088,34 @@
       <c r="R3" s="2">
         <v>437</v>
       </c>
-      <c r="S3" s="2"/>
+      <c r="S3" s="2">
+        <v>233</v>
+      </c>
       <c r="T3" s="2"/>
-      <c r="U3" s="2">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2">
         <v>681</v>
       </c>
-      <c r="V3" s="2">
+      <c r="Z3" s="2">
         <v>811</v>
       </c>
-      <c r="W3" s="2">
+      <c r="AA3" s="2">
         <v>918</v>
       </c>
-      <c r="X3" s="2">
+      <c r="AB3" s="2">
         <v>1282</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AC3" s="2">
         <v>1262</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AD3" s="2">
         <v>1343</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
@@ -1126,7 +1153,7 @@
         <v>187</v>
       </c>
       <c r="N4" s="2">
-        <f>+Z4-SUM(K4:M4)</f>
+        <f>+AD4-SUM(K4:M4)</f>
         <v>68</v>
       </c>
       <c r="O4" s="2">
@@ -1141,28 +1168,34 @@
       <c r="R4" s="2">
         <v>0</v>
       </c>
-      <c r="S4" s="2"/>
+      <c r="S4" s="2">
+        <v>56</v>
+      </c>
       <c r="T4" s="2"/>
-      <c r="U4" s="2">
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2">
         <v>1112</v>
       </c>
-      <c r="V4" s="2">
+      <c r="Z4" s="2">
         <v>1076</v>
       </c>
-      <c r="W4" s="2">
+      <c r="AA4" s="2">
         <v>695</v>
       </c>
-      <c r="X4" s="2">
+      <c r="AB4" s="2">
         <v>711</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AC4" s="2">
         <v>675</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AD4" s="2">
         <v>672</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>29</v>
       </c>
@@ -1223,41 +1256,48 @@
         <v>716</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" ref="Q5:R5" si="1">+Q3+Q4</f>
+        <f t="shared" ref="Q5:S5" si="1">+Q3+Q4</f>
         <v>599</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="1"/>
         <v>437</v>
       </c>
-      <c r="S5" s="2"/>
+      <c r="S5" s="2">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
       <c r="T5" s="2"/>
-      <c r="U5" s="2">
-        <f t="shared" ref="U5:X5" si="2">U3+U4</f>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2">
+        <f t="shared" ref="Y5:AB5" si="2">Y3+Y4</f>
         <v>1793</v>
       </c>
-      <c r="V5" s="2">
+      <c r="Z5" s="2">
         <f t="shared" si="2"/>
         <v>1887</v>
       </c>
-      <c r="W5" s="2">
+      <c r="AA5" s="2">
         <f t="shared" si="2"/>
         <v>1613</v>
       </c>
-      <c r="X5" s="2">
+      <c r="AB5" s="2">
         <f t="shared" si="2"/>
         <v>1993</v>
       </c>
-      <c r="Y5" s="2">
-        <f>Y3+Y4</f>
+      <c r="AC5" s="2">
+        <f>AC3+AC4</f>
         <v>1937</v>
       </c>
-      <c r="Z5" s="2">
-        <f>Z3+Z4</f>
+      <c r="AD5" s="2">
+        <f>AD3+AD4</f>
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1295,7 +1335,7 @@
         <v>1327</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" ref="N6:N15" si="3">+Z6-SUM(K6:M6)</f>
+        <f t="shared" ref="N6:N15" si="3">+AD6-SUM(K6:M6)</f>
         <v>1446</v>
       </c>
       <c r="O6" s="2">
@@ -1310,31 +1350,37 @@
       <c r="R6" s="2">
         <v>1458</v>
       </c>
-      <c r="S6" s="2"/>
+      <c r="S6" s="2">
+        <v>1382</v>
+      </c>
       <c r="T6" s="2"/>
-      <c r="U6" s="2">
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2">
         <v>3157</v>
       </c>
-      <c r="V6" s="2">
+      <c r="Z6" s="2">
         <v>3650</v>
       </c>
-      <c r="W6" s="2">
+      <c r="AA6" s="2">
         <v>4016</v>
       </c>
-      <c r="X6" s="2">
+      <c r="AB6" s="2">
         <v>4998</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AC6" s="2">
         <v>5489</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AD6" s="2">
         <v>5547</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AE6" s="2">
         <v>5461</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
@@ -1398,42 +1444,48 @@
       <c r="R7" s="13">
         <v>1895</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="13">
-        <f>U6+U5</f>
+      <c r="S7" s="13">
+        <v>1671</v>
+      </c>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="13">
+        <f>Y6+Y5</f>
         <v>4950</v>
       </c>
-      <c r="V7" s="13">
-        <f>V6+V5</f>
+      <c r="Z7" s="13">
+        <f>Z6+Z5</f>
         <v>5537</v>
       </c>
-      <c r="W7" s="13">
-        <f t="shared" ref="W7:X7" si="5">W6+W5</f>
+      <c r="AA7" s="13">
+        <f t="shared" ref="AA7:AB7" si="5">AA6+AA5</f>
         <v>5629</v>
       </c>
-      <c r="X7" s="13">
+      <c r="AB7" s="13">
         <f t="shared" si="5"/>
         <v>6991</v>
       </c>
-      <c r="Y7" s="13">
-        <f>Y6+Y5</f>
+      <c r="AC7" s="13">
+        <f>AC6+AC5</f>
         <v>7426</v>
       </c>
-      <c r="Z7" s="13">
-        <f>Z6+Z5</f>
+      <c r="AD7" s="13">
+        <f>AD6+AD5</f>
         <v>7562</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AE7" s="13">
         <v>7463</v>
       </c>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1486,36 +1538,42 @@
       <c r="R8" s="2">
         <v>368</v>
       </c>
-      <c r="S8" s="2"/>
+      <c r="S8" s="2">
+        <v>279</v>
+      </c>
       <c r="T8" s="2"/>
-      <c r="U8" s="2">
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2">
         <v>1322</v>
       </c>
-      <c r="V8" s="2">
+      <c r="Z8" s="2">
         <v>1369</v>
       </c>
-      <c r="W8" s="2">
+      <c r="AA8" s="2">
         <v>1494</v>
       </c>
-      <c r="X8" s="2">
+      <c r="AB8" s="2">
         <v>1859</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AC8" s="2">
         <v>1792</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AD8" s="2">
         <v>1710</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AE8" s="2">
         <v>1543</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ref="C9:R9" si="6">C7-C8</f>
+        <f t="shared" ref="C9:S9" si="6">C7-C8</f>
         <v>1236</v>
       </c>
       <c r="D9" s="2">
@@ -1578,38 +1636,45 @@
         <f t="shared" si="6"/>
         <v>1527</v>
       </c>
-      <c r="S9" s="2"/>
+      <c r="S9" s="2">
+        <f t="shared" si="6"/>
+        <v>1392</v>
+      </c>
       <c r="T9" s="2"/>
-      <c r="U9" s="2">
-        <f t="shared" ref="U9:X9" si="7">U7-U8</f>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2">
+        <f t="shared" ref="Y9:AB9" si="7">Y7-Y8</f>
         <v>3628</v>
       </c>
-      <c r="V9" s="2">
+      <c r="Z9" s="2">
         <f t="shared" si="7"/>
         <v>4168</v>
       </c>
-      <c r="W9" s="2">
+      <c r="AA9" s="2">
         <f t="shared" si="7"/>
         <v>4135</v>
       </c>
-      <c r="X9" s="2">
+      <c r="AB9" s="2">
         <f t="shared" si="7"/>
         <v>5132</v>
       </c>
-      <c r="Y9" s="2">
-        <f>Y7-Y8</f>
+      <c r="AC9" s="2">
+        <f>AC7-AC8</f>
         <v>5634</v>
       </c>
-      <c r="Z9" s="2">
-        <f>Z7-Z8</f>
+      <c r="AD9" s="2">
+        <f>AD7-AD8</f>
         <v>5852</v>
       </c>
-      <c r="AA9" s="2">
-        <f>AA7-AA8</f>
+      <c r="AE9" s="2">
+        <f>AE7-AE8</f>
         <v>5920</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -1662,31 +1727,37 @@
       <c r="R10" s="2">
         <v>686</v>
       </c>
-      <c r="S10" s="2"/>
+      <c r="S10" s="2">
+        <v>706</v>
+      </c>
       <c r="T10" s="2"/>
-      <c r="U10" s="2">
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2">
         <v>1433</v>
       </c>
-      <c r="V10" s="2">
+      <c r="Z10" s="2">
         <v>1559</v>
       </c>
-      <c r="W10" s="2">
+      <c r="AA10" s="2">
         <v>1778</v>
       </c>
-      <c r="X10" s="2">
+      <c r="AB10" s="2">
         <v>2186</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AC10" s="2">
         <v>2328</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AD10" s="2">
         <v>2420</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AE10" s="2">
         <v>2569</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1739,31 +1810,37 @@
       <c r="R11" s="2">
         <v>234</v>
       </c>
-      <c r="S11" s="2"/>
+      <c r="S11" s="2">
+        <v>214</v>
+      </c>
       <c r="T11" s="2"/>
-      <c r="U11" s="2">
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2">
         <v>702</v>
       </c>
-      <c r="V11" s="2">
+      <c r="Z11" s="2">
         <v>631</v>
       </c>
-      <c r="W11" s="2">
+      <c r="AA11" s="2">
         <v>689</v>
       </c>
-      <c r="X11" s="2">
+      <c r="AB11" s="2">
         <v>961</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AC11" s="2">
         <v>978</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AD11" s="2">
         <v>1019</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AE11" s="2">
         <v>962</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1816,31 +1893,37 @@
       <c r="R12" s="2">
         <v>192</v>
       </c>
-      <c r="S12" s="2"/>
+      <c r="S12" s="2">
+        <v>184</v>
+      </c>
       <c r="T12" s="2"/>
-      <c r="U12" s="2">
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2">
         <v>460</v>
       </c>
-      <c r="V12" s="2">
+      <c r="Z12" s="2">
         <v>506</v>
       </c>
-      <c r="W12" s="2">
+      <c r="AA12" s="2">
         <v>592</v>
       </c>
-      <c r="X12" s="2">
+      <c r="AB12" s="2">
         <v>673</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="AC12" s="2">
         <v>727</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AD12" s="2">
         <v>691</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AE12" s="2">
         <v>745</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1893,31 +1976,37 @@
       <c r="R13" s="2">
         <v>17</v>
       </c>
-      <c r="S13" s="2"/>
+      <c r="S13" s="2">
+        <v>17</v>
+      </c>
       <c r="T13" s="2"/>
-      <c r="U13" s="2">
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2">
         <v>23</v>
       </c>
-      <c r="V13" s="2">
+      <c r="Z13" s="2">
         <v>22</v>
       </c>
-      <c r="W13" s="2">
+      <c r="AA13" s="2">
         <v>30</v>
       </c>
-      <c r="X13" s="2">
+      <c r="AB13" s="2">
         <v>183</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="AC13" s="2">
         <v>158</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="AD13" s="2">
         <v>142</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AE13" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>37</v>
       </c>
@@ -1970,31 +2059,37 @@
       <c r="R14" s="2">
         <v>0</v>
       </c>
-      <c r="S14" s="2"/>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
       <c r="T14" s="2"/>
-      <c r="U14" s="2">
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2">
         <v>14</v>
       </c>
-      <c r="V14" s="2">
+      <c r="Z14" s="2">
         <v>5</v>
       </c>
-      <c r="W14" s="2">
-        <v>0</v>
-      </c>
-      <c r="X14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>0</v>
-      </c>
       <c r="AA14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
@@ -2047,36 +2142,42 @@
       <c r="R15" s="2">
         <v>3</v>
       </c>
-      <c r="S15" s="2"/>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
       <c r="T15" s="2"/>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
-      <c r="X15" s="2">
-        <v>0</v>
-      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
       <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2">
         <v>111</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AD15" s="2">
         <v>62</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AE15" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ref="C16:R16" si="8">SUM(C10:C15)</f>
+        <f t="shared" ref="C16:S16" si="8">SUM(C10:C15)</f>
         <v>914</v>
       </c>
       <c r="D16" s="2">
@@ -2139,38 +2240,45 @@
         <f t="shared" si="8"/>
         <v>1132</v>
       </c>
-      <c r="S16" s="2"/>
+      <c r="S16" s="2">
+        <f t="shared" si="8"/>
+        <v>1121</v>
+      </c>
       <c r="T16" s="2"/>
-      <c r="U16" s="2">
-        <f t="shared" ref="U16:X16" si="9">SUM(U10:U15)</f>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2">
+        <f t="shared" ref="Y16:AB16" si="9">SUM(Y10:Y15)</f>
         <v>2632</v>
       </c>
-      <c r="V16" s="2">
+      <c r="Z16" s="2">
         <f t="shared" si="9"/>
         <v>2723</v>
       </c>
-      <c r="W16" s="2">
+      <c r="AA16" s="2">
         <f t="shared" si="9"/>
         <v>3089</v>
       </c>
-      <c r="X16" s="2">
+      <c r="AB16" s="2">
         <f t="shared" si="9"/>
         <v>4003</v>
       </c>
-      <c r="Y16" s="2">
-        <f>SUM(Y10:Y15)</f>
+      <c r="AC16" s="2">
+        <f>SUM(AC10:AC15)</f>
         <v>4302</v>
       </c>
-      <c r="Z16" s="2">
-        <f>SUM(Z10:Z15)</f>
+      <c r="AD16" s="2">
+        <f>SUM(AD10:AD15)</f>
         <v>4334</v>
       </c>
-      <c r="AA16" s="2">
-        <f>SUM(AA10:AA15)</f>
+      <c r="AE16" s="2">
+        <f>SUM(AE10:AE15)</f>
         <v>4400</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
@@ -2238,38 +2346,44 @@
         <f t="shared" si="11"/>
         <v>395</v>
       </c>
-      <c r="S17" s="2"/>
+      <c r="S17" s="2">
+        <v>271</v>
+      </c>
       <c r="T17" s="2"/>
-      <c r="U17" s="2">
-        <f t="shared" ref="U17:X17" si="12">U9-U16</f>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2">
+        <f t="shared" ref="Y17:AB17" si="12">Y9-Y16</f>
         <v>996</v>
       </c>
-      <c r="V17" s="2">
+      <c r="Z17" s="2">
         <f t="shared" si="12"/>
         <v>1445</v>
       </c>
-      <c r="W17" s="2">
+      <c r="AA17" s="2">
         <f t="shared" si="12"/>
         <v>1046</v>
       </c>
-      <c r="X17" s="2">
+      <c r="AB17" s="2">
         <f t="shared" si="12"/>
         <v>1129</v>
       </c>
-      <c r="Y17" s="2">
-        <f>Y9-Y16</f>
+      <c r="AC17" s="2">
+        <f>AC9-AC16</f>
         <v>1332</v>
       </c>
-      <c r="Z17" s="2">
-        <f>Z9-Z16</f>
+      <c r="AD17" s="2">
+        <f>AD9-AD16</f>
         <v>1518</v>
       </c>
-      <c r="AA17" s="2">
-        <f>AA9-AA16</f>
+      <c r="AE17" s="2">
+        <f>AE9-AE16</f>
         <v>1520</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
@@ -2307,7 +2421,7 @@
         <v>17</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" ref="N18" si="13">+Z18-SUM(K18:M18)</f>
+        <f t="shared" ref="N18" si="13">+AD18-SUM(K18:M18)</f>
         <v>26</v>
       </c>
       <c r="O18" s="2">
@@ -2322,31 +2436,37 @@
       <c r="R18" s="2">
         <v>12</v>
       </c>
-      <c r="S18" s="2"/>
+      <c r="S18" s="2">
+        <v>2</v>
+      </c>
       <c r="T18" s="2"/>
-      <c r="U18" s="2">
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2">
         <v>83</v>
       </c>
-      <c r="V18" s="2">
+      <c r="Z18" s="2">
         <v>63</v>
       </c>
-      <c r="W18" s="2">
+      <c r="AA18" s="2">
         <v>-29</v>
       </c>
-      <c r="X18" s="2">
+      <c r="AB18" s="2">
         <v>-48</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="AC18" s="2">
         <v>-6</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="AD18" s="2">
         <v>71</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AE18" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
@@ -2355,7 +2475,7 @@
         <v>308</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:R19" si="14">D17+D18</f>
+        <f t="shared" ref="D19:S19" si="14">D17+D18</f>
         <v>326</v>
       </c>
       <c r="E19" s="2">
@@ -2414,38 +2534,45 @@
         <f t="shared" si="14"/>
         <v>407</v>
       </c>
-      <c r="S19" s="2"/>
+      <c r="S19" s="2">
+        <f t="shared" si="14"/>
+        <v>273</v>
+      </c>
       <c r="T19" s="2"/>
-      <c r="U19" s="2">
-        <f t="shared" ref="U19:X19" si="15">U17+U18</f>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2">
+        <f t="shared" ref="Y19:AB19" si="15">Y17+Y18</f>
         <v>1079</v>
       </c>
-      <c r="V19" s="2">
+      <c r="Z19" s="2">
         <f t="shared" si="15"/>
         <v>1508</v>
       </c>
-      <c r="W19" s="2">
+      <c r="AA19" s="2">
         <f t="shared" si="15"/>
         <v>1017</v>
       </c>
-      <c r="X19" s="2">
+      <c r="AB19" s="2">
         <f t="shared" si="15"/>
         <v>1081</v>
       </c>
-      <c r="Y19" s="2">
-        <f>Y17+Y18</f>
+      <c r="AC19" s="2">
+        <f>AC17+AC18</f>
         <v>1326</v>
       </c>
-      <c r="Z19" s="2">
-        <f>Z17+Z18</f>
+      <c r="AD19" s="2">
+        <f>AD17+AD18</f>
         <v>1589</v>
       </c>
-      <c r="AA19" s="2">
-        <f>AA17+AA18</f>
+      <c r="AE19" s="2">
+        <f>AE17+AE18</f>
         <v>1605</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
@@ -2483,7 +2610,7 @@
         <v>92</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" ref="N20" si="16">+Z20-SUM(K20:M20)</f>
+        <f t="shared" ref="N20" si="16">+AD20-SUM(K20:M20)</f>
         <v>78</v>
       </c>
       <c r="O20" s="2">
@@ -2498,36 +2625,42 @@
       <c r="R20" s="2">
         <v>153</v>
       </c>
-      <c r="S20" s="2"/>
+      <c r="S20" s="2">
+        <v>72</v>
+      </c>
       <c r="T20" s="2"/>
-      <c r="U20" s="2">
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2">
         <v>60</v>
       </c>
-      <c r="V20" s="2">
+      <c r="Z20" s="2">
         <v>-1531</v>
       </c>
-      <c r="W20" s="2">
+      <c r="AA20" s="2">
         <v>180</v>
       </c>
-      <c r="X20" s="2">
+      <c r="AB20" s="2">
         <v>292</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="AC20" s="2">
         <v>524</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="AD20" s="2">
         <v>316</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AE20" s="2">
         <v>484</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ref="C21:R21" si="17">C19-C20</f>
+        <f t="shared" ref="C21:S21" si="17">C19-C20</f>
         <v>204</v>
       </c>
       <c r="D21" s="2">
@@ -2590,38 +2723,45 @@
         <f t="shared" si="17"/>
         <v>254</v>
       </c>
-      <c r="S21" s="2"/>
+      <c r="S21" s="2">
+        <f t="shared" si="17"/>
+        <v>201</v>
+      </c>
       <c r="T21" s="2"/>
-      <c r="U21" s="2">
-        <f t="shared" ref="U21:X21" si="18">U19-U20</f>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2">
+        <f t="shared" ref="Y21:AB21" si="18">Y19-Y20</f>
         <v>1019</v>
       </c>
-      <c r="V21" s="2">
+      <c r="Z21" s="2">
         <f t="shared" si="18"/>
         <v>3039</v>
       </c>
-      <c r="W21" s="2">
+      <c r="AA21" s="2">
         <f t="shared" si="18"/>
         <v>837</v>
       </c>
-      <c r="X21" s="2">
+      <c r="AB21" s="2">
         <f t="shared" si="18"/>
         <v>789</v>
       </c>
-      <c r="Y21" s="2">
-        <f>Y19-Y20</f>
+      <c r="AC21" s="2">
+        <f>AC19-AC20</f>
         <v>802</v>
       </c>
-      <c r="Z21" s="2">
-        <f>Z19-Z20</f>
+      <c r="AD21" s="2">
+        <f>AD19-AD20</f>
         <v>1273</v>
       </c>
-      <c r="AA21" s="2">
-        <f>AA19-AA20</f>
+      <c r="AE21" s="2">
+        <f>AE19-AE20</f>
         <v>1121</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2645,8 +2785,12 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>46</v>
       </c>
@@ -2703,33 +2847,40 @@
         <f>+R21/R24</f>
         <v>0.98832684824902728</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15">
+      <c r="S23" s="14">
+        <f>+S21/S24</f>
+        <v>0.80079681274900394</v>
+      </c>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15">
         <v>3.36</v>
       </c>
-      <c r="V23" s="15">
+      <c r="Z23" s="15">
         <v>10.37</v>
       </c>
-      <c r="W23" s="15">
+      <c r="AA23" s="15">
         <v>2.9</v>
       </c>
-      <c r="X23" s="15">
+      <c r="AB23" s="15">
         <v>2.78</v>
       </c>
-      <c r="Y23" s="15">
+      <c r="AC23" s="15">
         <v>2.9</v>
       </c>
-      <c r="Z23" s="15">
-        <f>+Z21/Z24</f>
+      <c r="AD23" s="15">
+        <f>+AD21/AD24</f>
         <v>4.7148148148148152</v>
       </c>
-      <c r="AA23" s="15">
-        <f>+AA21/AA24</f>
+      <c r="AE23" s="15">
+        <f>+AE21/AE24</f>
         <v>4.278625954198473</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -2778,7 +2929,7 @@
         <v>268.51851851851848</v>
       </c>
       <c r="N24" s="2">
-        <f>Z24</f>
+        <f>AD24</f>
         <v>270</v>
       </c>
       <c r="O24" s="2">
@@ -2793,36 +2944,42 @@
       <c r="R24" s="2">
         <v>257</v>
       </c>
-      <c r="S24" s="2"/>
+      <c r="S24" s="2">
+        <v>251</v>
+      </c>
       <c r="T24" s="2"/>
-      <c r="U24" s="2">
-        <f>U21/U23</f>
-        <v>303.27380952380952</v>
-      </c>
-      <c r="V24" s="2">
-        <f>V21/V23</f>
-        <v>293.05689488910321</v>
-      </c>
-      <c r="W24" s="2">
-        <f>W21/W23</f>
-        <v>288.62068965517244</v>
-      </c>
-      <c r="X24" s="2">
-        <f>X21/X23</f>
-        <v>283.8129496402878</v>
-      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
       <c r="Y24" s="2">
         <f>Y21/Y23</f>
+        <v>303.27380952380952</v>
+      </c>
+      <c r="Z24" s="2">
+        <f>Z21/Z23</f>
+        <v>293.05689488910321</v>
+      </c>
+      <c r="AA24" s="2">
+        <f>AA21/AA23</f>
+        <v>288.62068965517244</v>
+      </c>
+      <c r="AB24" s="2">
+        <f>AB21/AB23</f>
+        <v>283.8129496402878</v>
+      </c>
+      <c r="AC24" s="2">
+        <f>AC21/AC23</f>
         <v>276.55172413793105</v>
       </c>
-      <c r="Z24">
+      <c r="AD24">
         <v>270</v>
       </c>
-      <c r="AA24">
+      <c r="AE24">
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2846,8 +3003,12 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>47</v>
       </c>
@@ -2864,7 +3025,7 @@
         <v>106</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" ref="G26:R26" si="20">+G7/C7-1</f>
+        <f t="shared" ref="G26:S26" si="20">+G7/C7-1</f>
         <v>0.13926499032882012</v>
       </c>
       <c r="H26" s="11">
@@ -2911,37 +3072,44 @@
         <f t="shared" si="20"/>
         <v>6.5205171444631782E-2</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="10" t="s">
+      <c r="S26" s="11">
+        <f t="shared" si="20"/>
+        <v>6.6265060240964235E-3</v>
+      </c>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="V26" s="11">
-        <f t="shared" ref="V26:AA26" si="21">V7/U7-1</f>
+      <c r="Z26" s="11">
+        <f t="shared" ref="Z26:AE26" si="21">Z7/Y7-1</f>
         <v>0.11858585858585857</v>
       </c>
-      <c r="W26" s="11">
+      <c r="AA26" s="11">
         <f t="shared" si="21"/>
         <v>1.6615495755824439E-2</v>
       </c>
-      <c r="X26" s="11">
+      <c r="AB26" s="11">
         <f t="shared" si="21"/>
         <v>0.24196127198436668</v>
       </c>
-      <c r="Y26" s="11">
+      <c r="AC26" s="11">
         <f t="shared" si="21"/>
         <v>6.2222857960234634E-2</v>
       </c>
-      <c r="Z26" s="11">
+      <c r="AD26" s="11">
         <f t="shared" si="21"/>
         <v>1.8314031780231721E-2</v>
       </c>
-      <c r="AA26" s="11">
+      <c r="AE26" s="11">
         <f t="shared" si="21"/>
         <v>-1.3091774662787659E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>48</v>
       </c>
@@ -2958,7 +3126,7 @@
         <v>106</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" ref="G27:R30" si="22">+G3/C3-1</f>
+        <f t="shared" ref="G27:S30" si="22">+G3/C3-1</f>
         <v>1.716738197424883E-2</v>
       </c>
       <c r="H27" s="11">
@@ -3005,37 +3173,44 @@
         <f t="shared" si="22"/>
         <v>0.64905660377358498</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="10" t="s">
+      <c r="S27" s="11">
+        <f t="shared" si="22"/>
+        <v>0.22631578947368425</v>
+      </c>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="V27" s="11">
-        <f t="shared" ref="V27:AA30" si="23">V3/U3-1</f>
+      <c r="Z27" s="11">
+        <f t="shared" ref="Z27:AE30" si="23">Z3/Y3-1</f>
         <v>0.19089574155653444</v>
       </c>
-      <c r="W27" s="11">
+      <c r="AA27" s="11">
         <f t="shared" si="23"/>
         <v>0.13193588162762016</v>
       </c>
-      <c r="X27" s="11">
+      <c r="AB27" s="11">
         <f t="shared" si="23"/>
         <v>0.39651416122004357</v>
       </c>
-      <c r="Y27" s="11">
+      <c r="AC27" s="11">
         <f t="shared" si="23"/>
         <v>-1.5600624024960985E-2</v>
       </c>
-      <c r="Z27" s="11">
+      <c r="AD27" s="11">
         <f t="shared" si="23"/>
         <v>6.4183835182250348E-2</v>
       </c>
-      <c r="AA27" s="11">
+      <c r="AE27" s="11">
         <f t="shared" si="23"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>49</v>
       </c>
@@ -3099,37 +3274,44 @@
         <f t="shared" si="22"/>
         <v>-1</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="10" t="s">
+      <c r="S28" s="11">
+        <f t="shared" si="22"/>
+        <v>-6.6666666666666652E-2</v>
+      </c>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="V28" s="11">
+      <c r="Z28" s="11">
         <f t="shared" si="23"/>
         <v>-3.2374100719424481E-2</v>
       </c>
-      <c r="W28" s="11">
+      <c r="AA28" s="11">
         <f t="shared" si="23"/>
         <v>-0.35408921933085502</v>
       </c>
-      <c r="X28" s="11">
+      <c r="AB28" s="11">
         <f t="shared" si="23"/>
         <v>2.302158273381294E-2</v>
       </c>
-      <c r="Y28" s="11">
+      <c r="AC28" s="11">
         <f t="shared" si="23"/>
         <v>-5.0632911392405111E-2</v>
       </c>
-      <c r="Z28" s="11">
+      <c r="AD28" s="11">
         <f t="shared" si="23"/>
         <v>-4.4444444444444731E-3</v>
       </c>
-      <c r="AA28" s="11">
+      <c r="AE28" s="11">
         <f t="shared" si="23"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>50</v>
       </c>
@@ -3193,37 +3375,44 @@
         <f t="shared" si="22"/>
         <v>0.31231231231231238</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="10" t="s">
+      <c r="S29" s="11">
+        <f t="shared" si="22"/>
+        <v>0.15599999999999992</v>
+      </c>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="V29" s="11">
+      <c r="Z29" s="11">
         <f t="shared" si="23"/>
         <v>5.2426101505856026E-2</v>
       </c>
-      <c r="W29" s="11">
+      <c r="AA29" s="11">
         <f t="shared" si="23"/>
         <v>-0.14520402755696871</v>
       </c>
-      <c r="X29" s="11">
+      <c r="AB29" s="11">
         <f t="shared" si="23"/>
         <v>0.23558586484810906</v>
       </c>
-      <c r="Y29" s="11">
+      <c r="AC29" s="11">
         <f t="shared" si="23"/>
         <v>-2.8098344204716463E-2</v>
       </c>
-      <c r="Z29" s="11">
+      <c r="AD29" s="11">
         <f t="shared" si="23"/>
         <v>4.0268456375838868E-2</v>
       </c>
-      <c r="AA29" s="11">
+      <c r="AE29" s="11">
         <f t="shared" si="23"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>51</v>
       </c>
@@ -3287,37 +3476,44 @@
         <f t="shared" si="22"/>
         <v>8.2987551867219622E-3</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="10" t="s">
+      <c r="S30" s="11">
+        <f t="shared" si="22"/>
+        <v>-1.9858156028368823E-2</v>
+      </c>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="V30" s="11">
+      <c r="Z30" s="11">
         <f t="shared" si="23"/>
         <v>0.15616091225847328</v>
       </c>
-      <c r="W30" s="11">
+      <c r="AA30" s="11">
         <f t="shared" si="23"/>
         <v>0.10027397260273974</v>
       </c>
-      <c r="X30" s="11">
+      <c r="AB30" s="11">
         <f t="shared" si="23"/>
         <v>0.2445219123505975</v>
       </c>
-      <c r="Y30" s="11">
+      <c r="AC30" s="11">
         <f t="shared" si="23"/>
         <v>9.8239295718287378E-2</v>
       </c>
-      <c r="Z30" s="11">
+      <c r="AD30" s="11">
         <f t="shared" si="23"/>
         <v>1.0566587720896248E-2</v>
       </c>
-      <c r="AA30" s="11">
+      <c r="AE30" s="11">
         <f t="shared" si="23"/>
         <v>-1.5503875968992276E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>52</v>
       </c>
@@ -3385,335 +3581,363 @@
         <f t="shared" si="24"/>
         <v>0.80580474934036939</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="12">
-        <f t="shared" ref="U31:Z31" si="25">U9/U7</f>
+      <c r="S31" s="12">
+        <f t="shared" ref="S31" si="25">S9/S7</f>
+        <v>0.83303411131059246</v>
+      </c>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="12">
+        <f t="shared" ref="Y31:AD31" si="26">Y9/Y7</f>
         <v>0.73292929292929287</v>
       </c>
-      <c r="V31" s="12">
-        <f t="shared" si="25"/>
+      <c r="Z31" s="12">
+        <f t="shared" si="26"/>
         <v>0.75275419902474261</v>
       </c>
-      <c r="W31" s="12">
-        <f t="shared" si="25"/>
+      <c r="AA31" s="12">
+        <f t="shared" si="26"/>
         <v>0.7345887368982057</v>
       </c>
-      <c r="X31" s="12">
-        <f t="shared" si="25"/>
+      <c r="AB31" s="12">
+        <f t="shared" si="26"/>
         <v>0.73408668287798595</v>
       </c>
-      <c r="Y31" s="12">
-        <f t="shared" si="25"/>
+      <c r="AC31" s="12">
+        <f t="shared" si="26"/>
         <v>0.75868569889577164</v>
       </c>
-      <c r="Z31" s="12">
-        <f t="shared" si="25"/>
+      <c r="AD31" s="12">
+        <f t="shared" si="26"/>
         <v>0.77386934673366836</v>
       </c>
-      <c r="AA31" s="12">
-        <f t="shared" ref="AA31" si="26">AA9/AA7</f>
+      <c r="AE31" s="12">
+        <f t="shared" ref="AE31" si="27">AE9/AE7</f>
         <v>0.79324668363928719</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="12">
-        <f t="shared" ref="C32:R32" si="27">C17/C7</f>
+        <f t="shared" ref="C32:R32" si="28">C17/C7</f>
         <v>0.2076079948420374</v>
       </c>
       <c r="D32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.18619934282584885</v>
       </c>
       <c r="E32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.7015092230296258E-2</v>
       </c>
       <c r="F32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="G32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.24957555178268251</v>
       </c>
       <c r="H32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.22426470588235295</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.15364167995746944</v>
       </c>
       <c r="J32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.3383137673425834E-2</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.28170478170478169</v>
       </c>
       <c r="L32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.19696969696969696</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.18766066838046272</v>
       </c>
       <c r="N32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.13153456998313659</v>
       </c>
       <c r="O32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.21927710843373494</v>
       </c>
       <c r="P32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.18962962962962962</v>
       </c>
       <c r="Q32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.20021242697822622</v>
       </c>
       <c r="R32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.20844327176781002</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="12">
-        <f t="shared" ref="U32:Z32" si="28">U17/U7</f>
+      <c r="S32" s="12">
+        <f t="shared" ref="S32" si="29">S17/S7</f>
+        <v>0.16217833632555356</v>
+      </c>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="12">
+        <f t="shared" ref="Y32:AD32" si="30">Y17/Y7</f>
         <v>0.2012121212121212</v>
       </c>
-      <c r="V32" s="12">
-        <f t="shared" si="28"/>
+      <c r="Z32" s="12">
+        <f t="shared" si="30"/>
         <v>0.26097164529528627</v>
       </c>
-      <c r="W32" s="12">
-        <f t="shared" si="28"/>
+      <c r="AA32" s="12">
+        <f t="shared" si="30"/>
         <v>0.18582341446082787</v>
       </c>
-      <c r="X32" s="12">
-        <f t="shared" si="28"/>
+      <c r="AB32" s="12">
+        <f t="shared" si="30"/>
         <v>0.16149334859104564</v>
       </c>
-      <c r="Y32" s="12">
-        <f t="shared" si="28"/>
+      <c r="AC32" s="12">
+        <f t="shared" si="30"/>
         <v>0.17936978184756261</v>
       </c>
-      <c r="Z32" s="12">
-        <f t="shared" si="28"/>
+      <c r="AD32" s="12">
+        <f t="shared" si="30"/>
         <v>0.2007405448294102</v>
       </c>
-      <c r="AA32" s="12">
-        <f t="shared" ref="AA32" si="29">AA17/AA7</f>
+      <c r="AE32" s="12">
+        <f t="shared" ref="AE32" si="31">AE17/AE7</f>
         <v>0.20367144579927643</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>54</v>
       </c>
       <c r="C33" s="12">
-        <f t="shared" ref="C33:R33" si="30">C20/C19</f>
+        <f t="shared" ref="C33:R33" si="32">C20/C19</f>
         <v>0.33766233766233766</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>9.815950920245399E-2</v>
       </c>
       <c r="E33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.27472527472527475</v>
       </c>
       <c r="F33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.36797752808988765</v>
       </c>
       <c r="G33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.28669724770642202</v>
       </c>
       <c r="H33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.29976580796252927</v>
       </c>
       <c r="I33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.27659574468085107</v>
       </c>
       <c r="J33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.0662983425414365</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.27697841726618705</v>
       </c>
       <c r="L33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-2.0460358056265986E-2</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.24083769633507854</v>
       </c>
       <c r="N33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.3</v>
       </c>
       <c r="O33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.28934010152284262</v>
       </c>
       <c r="P33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="Q33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.3012345679012346</v>
       </c>
       <c r="R33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.37592137592137592</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="12">
-        <f t="shared" ref="U33:Z33" si="31">U20/U19</f>
+      <c r="S33" s="12">
+        <f t="shared" ref="S33" si="33">S20/S19</f>
+        <v>0.26373626373626374</v>
+      </c>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="12">
+        <f t="shared" ref="Y33:AD33" si="34">Y20/Y19</f>
         <v>5.5607043558850787E-2</v>
       </c>
-      <c r="V33" s="12">
-        <f t="shared" si="31"/>
+      <c r="Z33" s="12">
+        <f t="shared" si="34"/>
         <v>-1.0152519893899203</v>
       </c>
-      <c r="W33" s="12">
-        <f t="shared" si="31"/>
+      <c r="AA33" s="12">
+        <f t="shared" si="34"/>
         <v>0.17699115044247787</v>
       </c>
-      <c r="X33" s="12">
-        <f t="shared" si="31"/>
+      <c r="AB33" s="12">
+        <f t="shared" si="34"/>
         <v>0.27012025901942643</v>
       </c>
-      <c r="Y33" s="12">
-        <f t="shared" si="31"/>
+      <c r="AC33" s="12">
+        <f t="shared" si="34"/>
         <v>0.39517345399698339</v>
       </c>
-      <c r="Z33" s="12">
-        <f t="shared" si="31"/>
+      <c r="AD33" s="12">
+        <f t="shared" si="34"/>
         <v>0.19886721208307112</v>
       </c>
-      <c r="AA33" s="12">
-        <f t="shared" ref="AA33" si="32">AA20/AA19</f>
+      <c r="AE33" s="12">
+        <f t="shared" ref="AE33" si="35">AE20/AE19</f>
         <v>0.30155763239875388</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="12">
-        <f t="shared" ref="C34:R34" si="33">C21/C7</f>
+        <f t="shared" ref="C34:R34" si="36">C21/C7</f>
         <v>0.13152804642166344</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.16100766703176342</v>
       </c>
       <c r="E34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>3.6892118501956402E-2</v>
       </c>
       <c r="F34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.12328767123287671</v>
       </c>
       <c r="G34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.17600452744765138</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.15703781512605042</v>
       </c>
       <c r="I34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.10845295055821372</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-6.4034151547491995E-3</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.20893970893970895</v>
       </c>
       <c r="L34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.20846394984326019</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.14910025706940874</v>
       </c>
       <c r="N34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.10230466554243957</v>
       </c>
       <c r="O34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.16867469879518071</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.14518518518518519</v>
       </c>
       <c r="Q34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.15029208709506106</v>
       </c>
       <c r="R34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.13403693931398417</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="12">
-        <f t="shared" ref="U34:Z34" si="34">U21/U7</f>
+      <c r="S34" s="12">
+        <f t="shared" ref="S34" si="37">S21/S7</f>
+        <v>0.12028725314183124</v>
+      </c>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="12">
+        <f t="shared" ref="Y34:AD34" si="38">Y21/Y7</f>
         <v>0.20585858585858585</v>
       </c>
-      <c r="V34" s="12">
-        <f t="shared" si="34"/>
+      <c r="Z34" s="12">
+        <f t="shared" si="38"/>
         <v>0.54885316958641861</v>
       </c>
-      <c r="W34" s="12">
-        <f t="shared" si="34"/>
+      <c r="AA34" s="12">
+        <f t="shared" si="38"/>
         <v>0.14869426185823414</v>
       </c>
-      <c r="X34" s="12">
-        <f t="shared" si="34"/>
+      <c r="AB34" s="12">
+        <f t="shared" si="38"/>
         <v>0.11285939064511515</v>
       </c>
-      <c r="Y34" s="12">
-        <f t="shared" si="34"/>
+      <c r="AC34" s="12">
+        <f t="shared" si="38"/>
         <v>0.10799892270401293</v>
       </c>
-      <c r="Z34" s="12">
-        <f t="shared" si="34"/>
+      <c r="AD34" s="12">
+        <f t="shared" si="38"/>
         <v>0.16834170854271358</v>
       </c>
-      <c r="AA34" s="12">
-        <f t="shared" ref="AA34" si="35">AA21/AA7</f>
+      <c r="AE34" s="12">
+        <f t="shared" ref="AE34" si="39">AE21/AE7</f>
         <v>0.15020769127696637</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -3737,8 +3961,12 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>56</v>
       </c>
@@ -3782,23 +4010,27 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="2">
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2">
         <v>4708</v>
       </c>
-      <c r="V36" s="2">
+      <c r="Z36" s="2">
         <v>3768</v>
       </c>
-      <c r="W36" s="2">
+      <c r="AA36" s="2">
         <v>5260</v>
       </c>
-      <c r="X36" s="2">
+      <c r="AB36" s="2">
         <v>2732</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="AC36" s="2">
         <v>2424</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>57</v>
       </c>
@@ -3842,23 +4074,27 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="2">
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2">
         <v>737</v>
       </c>
-      <c r="V37" s="2">
+      <c r="Z37" s="2">
         <v>1967</v>
       </c>
-      <c r="W37" s="2">
+      <c r="AA37" s="2">
         <v>1106</v>
       </c>
-      <c r="X37" s="2">
+      <c r="AB37" s="2">
         <v>330</v>
       </c>
-      <c r="Y37" s="2">
+      <c r="AC37" s="2">
         <v>343</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>58</v>
       </c>
@@ -3902,23 +4138,27 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-      <c r="U38" s="2">
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2">
         <v>623</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Z38" s="2">
         <v>461</v>
       </c>
-      <c r="W38" s="2">
+      <c r="AA38" s="2">
         <v>521</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AB38" s="2">
         <v>650</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AC38" s="2">
         <v>684</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>59</v>
       </c>
@@ -3962,68 +4202,72 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-      <c r="U39" s="2">
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2">
         <v>313</v>
       </c>
-      <c r="V39" s="2">
+      <c r="Z39" s="2">
         <v>321</v>
       </c>
-      <c r="W39" s="2">
+      <c r="AA39" s="2">
         <v>326</v>
       </c>
-      <c r="X39" s="2">
+      <c r="AB39" s="2">
         <v>439</v>
       </c>
-      <c r="Y39" s="2">
+      <c r="AC39" s="2">
         <v>518</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C40" s="13">
-        <f t="shared" ref="C40:M40" si="36">SUM(C36:C39)</f>
+        <f t="shared" ref="C40:M40" si="40">SUM(C36:C39)</f>
         <v>4677</v>
       </c>
       <c r="D40" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3390</v>
       </c>
       <c r="E40" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4358</v>
       </c>
       <c r="F40" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4151</v>
       </c>
       <c r="G40" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3517</v>
       </c>
       <c r="H40" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3442</v>
       </c>
       <c r="I40" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3842</v>
       </c>
       <c r="J40" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3969</v>
       </c>
       <c r="K40" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3574</v>
       </c>
       <c r="L40" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3844</v>
       </c>
       <c r="M40" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4349</v>
       </c>
       <c r="N40" s="2"/>
@@ -4033,28 +4277,32 @@
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-      <c r="U40" s="13">
-        <f t="shared" ref="U40:X40" si="37">SUM(U36:U39)</f>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="13">
+        <f t="shared" ref="Y40:AB40" si="41">SUM(Y36:Y39)</f>
         <v>6381</v>
       </c>
-      <c r="V40" s="13">
-        <f t="shared" si="37"/>
+      <c r="Z40" s="13">
+        <f t="shared" si="41"/>
         <v>6517</v>
       </c>
-      <c r="W40" s="13">
-        <f t="shared" si="37"/>
+      <c r="AA40" s="13">
+        <f t="shared" si="41"/>
         <v>7213</v>
       </c>
-      <c r="X40" s="13">
-        <f t="shared" si="37"/>
+      <c r="AB40" s="13">
+        <f t="shared" si="41"/>
         <v>4151</v>
       </c>
-      <c r="Y40" s="13">
-        <f>SUM(Y36:Y39)</f>
+      <c r="AC40" s="13">
+        <f>SUM(AC36:AC39)</f>
         <v>3969</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>61</v>
       </c>
@@ -4098,23 +4346,27 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="2">
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2">
         <v>448</v>
       </c>
-      <c r="V41" s="2">
+      <c r="Z41" s="2">
         <v>449</v>
       </c>
-      <c r="W41" s="2">
+      <c r="AA41" s="2">
         <v>491</v>
       </c>
-      <c r="X41" s="2">
+      <c r="AB41" s="2">
         <v>550</v>
       </c>
-      <c r="Y41" s="2">
+      <c r="AC41" s="2">
         <v>549</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>62</v>
       </c>
@@ -4158,23 +4410,27 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="2">
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2">
         <v>1892</v>
       </c>
-      <c r="V42" s="2">
+      <c r="Z42" s="2">
         <v>1885</v>
       </c>
-      <c r="W42" s="2">
+      <c r="AA42" s="2">
         <v>2868</v>
       </c>
-      <c r="X42" s="2">
+      <c r="AB42" s="2">
         <v>5387</v>
       </c>
-      <c r="Y42" s="2">
+      <c r="AC42" s="2">
         <v>5380</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>63</v>
       </c>
@@ -4218,23 +4474,27 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
-      <c r="U43" s="2">
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2">
         <v>87</v>
       </c>
-      <c r="V43" s="2">
+      <c r="Z43" s="2">
         <v>53</v>
       </c>
-      <c r="W43" s="2">
+      <c r="AA43" s="2">
         <v>309</v>
       </c>
-      <c r="X43" s="2">
+      <c r="AB43" s="2">
         <v>962</v>
       </c>
-      <c r="Y43" s="2">
+      <c r="AC43" s="2">
         <v>618</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>64</v>
       </c>
@@ -4278,23 +4538,27 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="2">
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2">
         <v>35</v>
       </c>
-      <c r="V44" s="2">
+      <c r="Z44" s="2">
         <v>1903</v>
       </c>
-      <c r="W44" s="2">
+      <c r="AA44" s="2">
         <v>2045</v>
       </c>
-      <c r="X44" s="2">
+      <c r="AB44" s="2">
         <v>2243</v>
       </c>
-      <c r="Y44" s="2">
+      <c r="AC44" s="2">
         <v>2462</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>65</v>
       </c>
@@ -4338,68 +4602,72 @@
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
-      <c r="U45" s="2">
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2">
         <v>114</v>
       </c>
-      <c r="V45" s="2">
+      <c r="Z45" s="2">
         <v>305</v>
       </c>
-      <c r="W45" s="2">
+      <c r="AA45" s="2">
         <v>362</v>
       </c>
-      <c r="X45" s="2">
+      <c r="AB45" s="2">
         <v>507</v>
       </c>
-      <c r="Y45" s="2">
+      <c r="AC45" s="2">
         <v>481</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C46" s="13">
-        <f t="shared" ref="C46:M46" si="38">C40+SUM(C41:C45)</f>
+        <f t="shared" ref="C46:M46" si="42">C40+SUM(C41:C45)</f>
         <v>12734</v>
       </c>
       <c r="D46" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>13019</v>
       </c>
       <c r="E46" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>13930</v>
       </c>
       <c r="F46" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>13800</v>
       </c>
       <c r="G46" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>13192</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>13079</v>
       </c>
       <c r="I46" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>13470</v>
       </c>
       <c r="J46" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>13459</v>
       </c>
       <c r="K46" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>13083</v>
       </c>
       <c r="L46" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>13139</v>
       </c>
       <c r="M46" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>13617</v>
       </c>
       <c r="N46" s="2"/>
@@ -4409,28 +4677,32 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-      <c r="U46" s="13">
-        <f t="shared" ref="U46:X46" si="39">U40+SUM(U41:U45)</f>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="13">
+        <f t="shared" ref="Y46:AB46" si="43">Y40+SUM(Y41:Y45)</f>
         <v>8957</v>
       </c>
-      <c r="V46" s="13">
-        <f t="shared" si="39"/>
+      <c r="Z46" s="13">
+        <f t="shared" si="43"/>
         <v>11112</v>
       </c>
-      <c r="W46" s="13">
-        <f t="shared" si="39"/>
+      <c r="AA46" s="13">
+        <f t="shared" si="43"/>
         <v>13288</v>
       </c>
-      <c r="X46" s="13">
-        <f t="shared" si="39"/>
+      <c r="AB46" s="13">
+        <f t="shared" si="43"/>
         <v>13800</v>
       </c>
-      <c r="Y46" s="13">
-        <f>Y40+SUM(Y41:Y45)</f>
+      <c r="AC46" s="13">
+        <f>AC40+SUM(AC41:AC45)</f>
         <v>13459</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>67</v>
       </c>
@@ -4474,23 +4746,27 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
-      <c r="U47" s="2">
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2">
         <v>113</v>
       </c>
-      <c r="V47" s="2">
+      <c r="Z47" s="2">
         <v>68</v>
       </c>
-      <c r="W47" s="2">
+      <c r="AA47" s="2">
         <v>96</v>
       </c>
-      <c r="X47" s="2">
+      <c r="AB47" s="2">
         <v>101</v>
       </c>
-      <c r="Y47" s="2">
+      <c r="AC47" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>68</v>
       </c>
@@ -4534,23 +4810,27 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
-      <c r="U48" s="2">
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2">
         <v>1052</v>
       </c>
-      <c r="V48" s="2">
+      <c r="Z48" s="2">
         <v>1052</v>
       </c>
-      <c r="W48" s="2">
+      <c r="AA48" s="2">
         <v>1341</v>
       </c>
-      <c r="X48" s="2">
+      <c r="AB48" s="2">
         <v>1388</v>
       </c>
-      <c r="Y48" s="2">
+      <c r="AC48" s="2">
         <v>1285</v>
       </c>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>69</v>
       </c>
@@ -4594,23 +4874,27 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
-      <c r="U49" s="2">
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2">
         <v>1100</v>
       </c>
-      <c r="V49" s="2">
+      <c r="Z49" s="2">
         <v>945</v>
       </c>
-      <c r="W49" s="2">
+      <c r="AA49" s="2">
         <v>1527</v>
       </c>
-      <c r="X49" s="2">
+      <c r="AB49" s="2">
         <v>2024</v>
       </c>
-      <c r="Y49" s="2">
+      <c r="AC49" s="2">
         <v>1901</v>
       </c>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>70</v>
       </c>
@@ -4654,68 +4938,72 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
-      <c r="U50" s="2">
-        <v>0</v>
-      </c>
-      <c r="V50" s="2">
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2">
         <v>599</v>
       </c>
-      <c r="W50" s="2">
-        <v>0</v>
-      </c>
-      <c r="X50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AA50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>71</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" ref="C51:M51" si="40">SUM(C47:C50)</f>
+        <f t="shared" ref="C51:M51" si="44">SUM(C47:C50)</f>
         <v>2471</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>2577</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>3630</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>3513</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>2833</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>2561</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>3113</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>3285</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>2800</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>2788</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>3280</v>
       </c>
       <c r="N51" s="2"/>
@@ -4725,28 +5013,32 @@
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
-      <c r="U51" s="2">
-        <f t="shared" ref="U51:X51" si="41">SUM(U47:U50)</f>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2">
+        <f t="shared" ref="Y51:AB51" si="45">SUM(Y47:Y50)</f>
         <v>2265</v>
       </c>
-      <c r="V51" s="2">
-        <f t="shared" si="41"/>
+      <c r="Z51" s="2">
+        <f t="shared" si="45"/>
         <v>2664</v>
       </c>
-      <c r="W51" s="2">
-        <f t="shared" si="41"/>
+      <c r="AA51" s="2">
+        <f t="shared" si="45"/>
         <v>2964</v>
       </c>
-      <c r="X51" s="2">
-        <f t="shared" si="41"/>
+      <c r="AB51" s="2">
+        <f t="shared" si="45"/>
         <v>3513</v>
       </c>
-      <c r="Y51" s="2">
-        <f>SUM(Y47:Y50)</f>
+      <c r="AC51" s="2">
+        <f>SUM(AC47:AC50)</f>
         <v>3285</v>
       </c>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>72</v>
       </c>
@@ -4790,23 +5082,27 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-      <c r="U52" s="2">
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2">
         <v>994</v>
       </c>
-      <c r="V52" s="2">
+      <c r="Z52" s="2">
         <v>397</v>
       </c>
-      <c r="W52" s="2">
+      <c r="AA52" s="2">
         <v>1876</v>
       </c>
-      <c r="X52" s="2">
+      <c r="AB52" s="2">
         <v>1878</v>
       </c>
-      <c r="Y52" s="2">
+      <c r="AC52" s="2">
         <v>1880</v>
       </c>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>73</v>
       </c>
@@ -4850,23 +5146,27 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-      <c r="U53" s="2">
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2">
         <v>233</v>
       </c>
-      <c r="V53" s="2">
+      <c r="Z53" s="2">
         <v>373</v>
       </c>
-      <c r="W53" s="2">
+      <c r="AA53" s="2">
         <v>315</v>
       </c>
-      <c r="X53" s="2">
+      <c r="AB53" s="2">
         <v>386</v>
       </c>
-      <c r="Y53" s="2">
+      <c r="AC53" s="2">
         <v>607</v>
       </c>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>64</v>
       </c>
@@ -4910,23 +5210,27 @@
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
-      <c r="U54" s="2">
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2">
         <v>2</v>
       </c>
-      <c r="V54" s="2">
+      <c r="Z54" s="2">
         <v>1</v>
       </c>
-      <c r="W54" s="2">
+      <c r="AA54" s="2">
         <v>43</v>
       </c>
-      <c r="X54" s="2">
+      <c r="AB54" s="2">
         <v>1</v>
       </c>
-      <c r="Y54" s="2">
+      <c r="AC54" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>74</v>
       </c>
@@ -4970,68 +5274,72 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
-      <c r="U55" s="2">
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2">
         <v>132</v>
       </c>
-      <c r="V55" s="2">
+      <c r="Z55" s="2">
         <v>216</v>
       </c>
-      <c r="W55" s="2">
+      <c r="AA55" s="2">
         <v>250</v>
       </c>
-      <c r="X55" s="2">
+      <c r="AB55" s="2">
         <v>397</v>
       </c>
-      <c r="Y55" s="2">
+      <c r="AC55" s="2">
         <v>393</v>
       </c>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C56" s="13">
-        <f t="shared" ref="C56:M56" si="42">C51+SUM(C52:C55)</f>
+        <f t="shared" ref="C56:M56" si="46">C51+SUM(C52:C55)</f>
         <v>5006</v>
       </c>
       <c r="D56" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5163</v>
       </c>
       <c r="E56" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>6313</v>
       </c>
       <c r="F56" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>6175</v>
       </c>
       <c r="G56" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5551</v>
       </c>
       <c r="H56" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5281</v>
       </c>
       <c r="I56" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5919</v>
       </c>
       <c r="J56" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>6166</v>
       </c>
       <c r="K56" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5749</v>
       </c>
       <c r="L56" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5564</v>
       </c>
       <c r="M56" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>6084</v>
       </c>
       <c r="N56" s="2"/>
@@ -5041,28 +5349,32 @@
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
-      <c r="U56" s="13">
-        <f t="shared" ref="U56:X56" si="43">U51+SUM(U52:U55)</f>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="13">
+        <f t="shared" ref="Y56:AB56" si="47">Y51+SUM(Y52:Y55)</f>
         <v>3626</v>
       </c>
-      <c r="V56" s="13">
-        <f>V51+SUM(V52:V55)</f>
+      <c r="Z56" s="13">
+        <f>Z51+SUM(Z52:Z55)</f>
         <v>3651</v>
       </c>
-      <c r="W56" s="13">
-        <f t="shared" si="43"/>
+      <c r="AA56" s="13">
+        <f t="shared" si="47"/>
         <v>5448</v>
       </c>
-      <c r="X56" s="13">
-        <f t="shared" si="43"/>
+      <c r="AB56" s="13">
+        <f t="shared" si="47"/>
         <v>6175</v>
       </c>
-      <c r="Y56" s="13">
-        <f>Y51+SUM(Y52:Y55)</f>
+      <c r="AC56" s="13">
+        <f>AC51+SUM(AC52:AC55)</f>
         <v>6166</v>
       </c>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>76</v>
       </c>
@@ -5106,23 +5418,27 @@
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
-      <c r="U57" s="2">
-        <v>0</v>
-      </c>
-      <c r="V57" s="2">
-        <v>0</v>
-      </c>
-      <c r="W57" s="2">
-        <v>0</v>
-      </c>
-      <c r="X57" s="2">
-        <v>0</v>
-      </c>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
       <c r="Y57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>77</v>
       </c>
@@ -5166,23 +5482,27 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-      <c r="U58" s="2">
-        <v>3</v>
-      </c>
-      <c r="V58" s="2">
-        <v>3</v>
-      </c>
-      <c r="W58" s="2">
-        <v>3</v>
-      </c>
-      <c r="X58" s="2">
-        <v>3</v>
-      </c>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
       <c r="Y58" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z58" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC58" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>78</v>
       </c>
@@ -5226,23 +5546,27 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
-      <c r="U59" s="2">
-        <v>0</v>
-      </c>
-      <c r="V59" s="2">
-        <v>0</v>
-      </c>
-      <c r="W59" s="2">
-        <v>0</v>
-      </c>
-      <c r="X59" s="2">
-        <v>0</v>
-      </c>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
       <c r="Y59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>79</v>
       </c>
@@ -5286,23 +5610,27 @@
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
-      <c r="U60" s="2">
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2">
         <v>5358</v>
       </c>
-      <c r="V60" s="2">
+      <c r="Z60" s="2">
         <v>7508</v>
       </c>
-      <c r="W60" s="2">
+      <c r="AA60" s="2">
         <v>7887</v>
       </c>
-      <c r="X60" s="2">
+      <c r="AB60" s="2">
         <v>7607</v>
       </c>
-      <c r="Y60" s="2">
+      <c r="AC60" s="2">
         <v>7357</v>
       </c>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>80</v>
       </c>
@@ -5346,23 +5674,27 @@
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
-      <c r="U61" s="2">
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2">
         <v>-30</v>
       </c>
-      <c r="V61" s="2">
+      <c r="Z61" s="2">
         <v>-50</v>
       </c>
-      <c r="W61" s="2">
+      <c r="AA61" s="2">
         <v>-50</v>
       </c>
-      <c r="X61" s="2">
+      <c r="AB61" s="2">
         <v>15</v>
       </c>
-      <c r="Y61" s="2">
+      <c r="AC61" s="2">
         <v>-67</v>
       </c>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>81</v>
       </c>
@@ -5406,68 +5738,72 @@
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
-      <c r="U62" s="2">
-        <v>0</v>
-      </c>
-      <c r="V62" s="2">
-        <v>0</v>
-      </c>
-      <c r="W62" s="2">
-        <v>0</v>
-      </c>
-      <c r="X62" s="2">
-        <v>0</v>
-      </c>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
       <c r="Y62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>82</v>
       </c>
       <c r="C63" s="2">
-        <f t="shared" ref="C63:M63" si="44">SUM(C57:C62)</f>
+        <f t="shared" ref="C63:M63" si="48">SUM(C57:C62)</f>
         <v>7728</v>
       </c>
       <c r="D63" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>7856</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>7617</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>7625</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>7641</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>7798</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>7551</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>7293</v>
       </c>
       <c r="K63" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>7334</v>
       </c>
       <c r="L63" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>7575</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>7533</v>
       </c>
       <c r="N63" s="2"/>
@@ -5477,73 +5813,77 @@
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
-      <c r="U63" s="2">
-        <f t="shared" ref="U63:X63" si="45">SUM(U57:U62)</f>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2">
+        <f t="shared" ref="Y63:AB63" si="49">SUM(Y57:Y62)</f>
         <v>5331</v>
       </c>
-      <c r="V63" s="2">
-        <f t="shared" si="45"/>
+      <c r="Z63" s="2">
+        <f t="shared" si="49"/>
         <v>7461</v>
       </c>
-      <c r="W63" s="2">
-        <f t="shared" si="45"/>
+      <c r="AA63" s="2">
+        <f t="shared" si="49"/>
         <v>7840</v>
       </c>
-      <c r="X63" s="2">
-        <f t="shared" si="45"/>
+      <c r="AB63" s="2">
+        <f t="shared" si="49"/>
         <v>7625</v>
       </c>
-      <c r="Y63" s="2">
-        <f>SUM(Y57:Y62)</f>
+      <c r="AC63" s="2">
+        <f>SUM(AC57:AC62)</f>
         <v>7293</v>
       </c>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C64" s="13">
-        <f t="shared" ref="C64:M64" si="46">C56+C63</f>
+        <f t="shared" ref="C64:M64" si="50">C56+C63</f>
         <v>12734</v>
       </c>
       <c r="D64" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>13019</v>
       </c>
       <c r="E64" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>13930</v>
       </c>
       <c r="F64" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>13800</v>
       </c>
       <c r="G64" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>13192</v>
       </c>
       <c r="H64" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>13079</v>
       </c>
       <c r="I64" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>13470</v>
       </c>
       <c r="J64" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>13459</v>
       </c>
       <c r="K64" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>13083</v>
       </c>
       <c r="L64" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>13139</v>
       </c>
       <c r="M64" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>13617</v>
       </c>
       <c r="N64" s="2"/>
@@ -5553,28 +5893,32 @@
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
-      <c r="U64" s="13">
-        <f t="shared" ref="U64:X64" si="47">U56+U63</f>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="13">
+        <f t="shared" ref="Y64:AB64" si="51">Y56+Y63</f>
         <v>8957</v>
       </c>
-      <c r="V64" s="13">
-        <f t="shared" si="47"/>
+      <c r="Z64" s="13">
+        <f t="shared" si="51"/>
         <v>11112</v>
       </c>
-      <c r="W64" s="13">
-        <f t="shared" si="47"/>
+      <c r="AA64" s="13">
+        <f t="shared" si="51"/>
         <v>13288</v>
       </c>
-      <c r="X64" s="13">
-        <f t="shared" si="47"/>
+      <c r="AB64" s="13">
+        <f t="shared" si="51"/>
         <v>13800</v>
       </c>
-      <c r="Y64" s="13">
-        <f>Y56+Y63</f>
+      <c r="AC64" s="13">
+        <f>AC56+AC63</f>
         <v>13459</v>
       </c>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:29" x14ac:dyDescent="0.25">
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -5587,8 +5931,12 @@
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>44</v>
       </c>
@@ -5599,28 +5947,32 @@
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
-      <c r="U66" s="2">
-        <f>U21</f>
-        <v>1019</v>
-      </c>
-      <c r="V66" s="2">
-        <f>V21</f>
-        <v>3039</v>
-      </c>
-      <c r="W66" s="2">
-        <f>W21</f>
-        <v>837</v>
-      </c>
-      <c r="X66" s="2">
-        <f>X21</f>
-        <v>789</v>
-      </c>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
       <c r="Y66" s="2">
         <f>Y21</f>
+        <v>1019</v>
+      </c>
+      <c r="Z66" s="2">
+        <f>Z21</f>
+        <v>3039</v>
+      </c>
+      <c r="AA66" s="2">
+        <f>AA21</f>
+        <v>837</v>
+      </c>
+      <c r="AB66" s="2">
+        <f>AB21</f>
+        <v>789</v>
+      </c>
+      <c r="AC66" s="2">
+        <f>AC21</f>
         <v>802</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>84</v>
       </c>
@@ -5631,23 +5983,27 @@
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
-      <c r="U67" s="2">
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2">
         <v>145</v>
       </c>
-      <c r="V67" s="2">
+      <c r="Z67" s="2">
         <v>150</v>
       </c>
-      <c r="W67" s="2">
+      <c r="AA67" s="2">
         <v>181</v>
       </c>
-      <c r="X67" s="2">
+      <c r="AB67" s="2">
         <v>486</v>
       </c>
-      <c r="Y67" s="2">
+      <c r="AC67" s="2">
         <v>536</v>
       </c>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>37</v>
       </c>
@@ -5658,23 +6014,27 @@
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
-      <c r="U68" s="2">
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2">
         <v>14</v>
       </c>
-      <c r="V68" s="2">
+      <c r="Z68" s="2">
         <v>5</v>
       </c>
-      <c r="W68" s="2">
-        <v>0</v>
-      </c>
-      <c r="X68" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AA68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>85</v>
       </c>
@@ -5685,23 +6045,27 @@
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
-      <c r="U69" s="2">
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2">
         <v>284</v>
       </c>
-      <c r="V69" s="2">
+      <c r="Z69" s="2">
         <v>347</v>
       </c>
-      <c r="W69" s="2">
+      <c r="AA69" s="2">
         <v>435</v>
       </c>
-      <c r="X69" s="2">
+      <c r="AB69" s="2">
         <v>528</v>
       </c>
-      <c r="Y69" s="2">
+      <c r="AC69" s="2">
         <v>548</v>
       </c>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
         <v>86</v>
       </c>
@@ -5717,8 +6081,12 @@
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>87</v>
       </c>
@@ -5729,23 +6097,27 @@
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
-      <c r="U71" s="2">
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2">
         <v>-88</v>
       </c>
-      <c r="V71" s="2">
+      <c r="Z71" s="2">
         <v>164</v>
       </c>
-      <c r="W71" s="2">
+      <c r="AA71" s="2">
         <v>-41</v>
       </c>
-      <c r="X71" s="2">
+      <c r="AB71" s="2">
         <v>-77</v>
       </c>
-      <c r="Y71" s="2">
+      <c r="AC71" s="2">
         <v>-34</v>
       </c>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>65</v>
       </c>
@@ -5756,23 +6128,27 @@
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
-      <c r="U72" s="2">
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2">
         <v>-24</v>
       </c>
-      <c r="V72" s="2">
+      <c r="Z72" s="2">
         <v>35</v>
       </c>
-      <c r="W72" s="2">
+      <c r="AA72" s="2">
         <v>-70</v>
       </c>
-      <c r="X72" s="2">
+      <c r="AB72" s="2">
         <v>-157</v>
       </c>
-      <c r="Y72" s="2">
+      <c r="AC72" s="2">
         <v>-103</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>88</v>
       </c>
@@ -5783,23 +6159,27 @@
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
-      <c r="U73" s="2">
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2">
         <v>59</v>
       </c>
-      <c r="V73" s="2">
+      <c r="Z73" s="2">
         <v>-36</v>
       </c>
-      <c r="W73" s="2">
+      <c r="AA73" s="2">
         <v>18</v>
       </c>
-      <c r="X73" s="2">
+      <c r="AB73" s="2">
         <v>-7</v>
       </c>
-      <c r="Y73" s="2">
+      <c r="AC73" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>89</v>
       </c>
@@ -5810,23 +6190,27 @@
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
-      <c r="U74" s="2">
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2">
         <v>3</v>
       </c>
-      <c r="V74" s="2">
+      <c r="Z74" s="2">
         <v>119</v>
       </c>
-      <c r="W74" s="2">
+      <c r="AA74" s="2">
         <v>136</v>
       </c>
-      <c r="X74" s="2">
+      <c r="AB74" s="2">
         <v>169</v>
       </c>
-      <c r="Y74" s="2">
+      <c r="AC74" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>64</v>
       </c>
@@ -5837,23 +6221,27 @@
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
-      <c r="U75" s="2">
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2">
         <v>-16</v>
       </c>
-      <c r="V75" s="2">
+      <c r="Z75" s="2">
         <v>-1871</v>
       </c>
-      <c r="W75" s="2">
+      <c r="AA75" s="2">
         <v>-143</v>
       </c>
-      <c r="X75" s="2">
+      <c r="AB75" s="2">
         <v>-329</v>
       </c>
-      <c r="Y75" s="2">
+      <c r="AC75" s="2">
         <v>-221</v>
       </c>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>90</v>
       </c>
@@ -5864,23 +6252,27 @@
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
-      <c r="U76" s="2">
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2">
         <v>151</v>
       </c>
-      <c r="V76" s="2">
+      <c r="Z76" s="2">
         <v>-155</v>
       </c>
-      <c r="W76" s="2">
+      <c r="AA76" s="2">
         <v>588</v>
       </c>
-      <c r="X76" s="2">
+      <c r="AB76" s="2">
         <v>497</v>
       </c>
-      <c r="Y76" s="2">
+      <c r="AC76" s="2">
         <v>-122</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>91</v>
       </c>
@@ -5891,28 +6283,32 @@
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
-      <c r="U77" s="13">
-        <f t="shared" ref="U77:X77" si="48">SUM(U66:U76)</f>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="13">
+        <f t="shared" ref="Y77:AB77" si="52">SUM(Y66:Y76)</f>
         <v>1547</v>
       </c>
-      <c r="V77" s="13">
-        <f t="shared" si="48"/>
+      <c r="Z77" s="13">
+        <f t="shared" si="52"/>
         <v>1797</v>
       </c>
-      <c r="W77" s="13">
-        <f t="shared" si="48"/>
+      <c r="AA77" s="13">
+        <f t="shared" si="52"/>
         <v>1941</v>
       </c>
-      <c r="X77" s="13">
-        <f t="shared" si="48"/>
+      <c r="AB77" s="13">
+        <f t="shared" si="52"/>
         <v>1899</v>
       </c>
-      <c r="Y77" s="13">
-        <f>SUM(Y66:Y76)</f>
+      <c r="AC77" s="13">
+        <f>SUM(AC66:AC76)</f>
         <v>1550</v>
       </c>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>92</v>
       </c>
@@ -5923,23 +6319,27 @@
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
-      <c r="U78" s="2">
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2">
         <v>-119</v>
       </c>
-      <c r="V78" s="2">
+      <c r="Z78" s="2">
         <v>-140</v>
       </c>
-      <c r="W78" s="2">
+      <c r="AA78" s="2">
         <v>-124</v>
       </c>
-      <c r="X78" s="2">
+      <c r="AB78" s="2">
         <v>-188</v>
       </c>
-      <c r="Y78" s="2">
+      <c r="AC78" s="2">
         <v>-207</v>
       </c>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>93</v>
       </c>
@@ -5950,23 +6350,27 @@
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
-      <c r="U79" s="2">
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2">
         <v>1688</v>
       </c>
-      <c r="V79" s="2">
+      <c r="Z79" s="2">
         <v>2142</v>
       </c>
-      <c r="W79" s="2">
+      <c r="AA79" s="2">
         <v>3686</v>
       </c>
-      <c r="X79" s="2">
+      <c r="AB79" s="2">
         <v>1329</v>
       </c>
-      <c r="Y79" s="2">
+      <c r="AC79" s="2">
         <v>395</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>94</v>
       </c>
@@ -5977,23 +6381,27 @@
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
-      <c r="U80" s="2">
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2">
         <v>-1342</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Z80" s="2">
         <v>-3359</v>
       </c>
-      <c r="W80" s="2">
+      <c r="AA80" s="2">
         <v>-2828</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AB80" s="2">
         <v>-554</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AC80" s="2">
         <v>-405</v>
       </c>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>95</v>
       </c>
@@ -6004,23 +6412,27 @@
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
-      <c r="U81" s="2">
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2">
         <v>-58</v>
       </c>
-      <c r="V81" s="2">
-        <v>0</v>
-      </c>
-      <c r="W81" s="2">
+      <c r="Z81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="2">
         <v>-1239</v>
       </c>
-      <c r="X81" s="2">
+      <c r="AB81" s="2">
         <v>-3391</v>
       </c>
-      <c r="Y81" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AC81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>96</v>
       </c>
@@ -6031,28 +6443,32 @@
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
-      <c r="U82" s="13">
-        <f t="shared" ref="U82:X82" si="49">SUM(U78:U81)</f>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="13">
+        <f t="shared" ref="Y82:AB82" si="53">SUM(Y78:Y81)</f>
         <v>169</v>
       </c>
-      <c r="V82" s="13">
-        <f t="shared" si="49"/>
+      <c r="Z82" s="13">
+        <f t="shared" si="53"/>
         <v>-1357</v>
       </c>
-      <c r="W82" s="13">
-        <f t="shared" si="49"/>
+      <c r="AA82" s="13">
+        <f t="shared" si="53"/>
         <v>-505</v>
       </c>
-      <c r="X82" s="13">
-        <f t="shared" si="49"/>
+      <c r="AB82" s="13">
+        <f t="shared" si="53"/>
         <v>-2804</v>
       </c>
-      <c r="Y82" s="13">
-        <f>SUM(Y78:Y81)</f>
+      <c r="AC82" s="13">
+        <f>SUM(AC78:AC81)</f>
         <v>-217</v>
       </c>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>97</v>
       </c>
@@ -6063,23 +6479,27 @@
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
-      <c r="U83" s="2">
-        <v>0</v>
-      </c>
-      <c r="V83" s="2">
-        <v>0</v>
-      </c>
-      <c r="W83" s="2">
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="2">
         <v>1478</v>
       </c>
-      <c r="X83" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AB83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>98</v>
       </c>
@@ -6090,23 +6510,27 @@
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
-      <c r="U84" s="2">
-        <v>0</v>
-      </c>
-      <c r="V84" s="2">
-        <v>0</v>
-      </c>
-      <c r="W84" s="2">
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="2">
         <v>-600</v>
       </c>
-      <c r="X84" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y84" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AB84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>99</v>
       </c>
@@ -6117,23 +6541,27 @@
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
-      <c r="U85" s="2">
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2">
         <v>61</v>
       </c>
-      <c r="V85" s="2">
+      <c r="Z85" s="2">
         <v>62</v>
       </c>
-      <c r="W85" s="2">
+      <c r="AA85" s="2">
         <v>86</v>
       </c>
-      <c r="X85" s="2">
+      <c r="AB85" s="2">
         <v>77</v>
       </c>
-      <c r="Y85" s="2">
+      <c r="AC85" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>100</v>
       </c>
@@ -6144,23 +6572,27 @@
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
-      <c r="U86" s="2">
-        <v>0</v>
-      </c>
-      <c r="V86" s="2">
-        <v>0</v>
-      </c>
-      <c r="W86" s="2">
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="2">
         <v>-98</v>
       </c>
-      <c r="X86" s="2">
+      <c r="AB86" s="2">
         <v>-193</v>
       </c>
-      <c r="Y86" s="2">
+      <c r="AC86" s="2">
         <v>-210</v>
       </c>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>101</v>
       </c>
@@ -6171,23 +6603,27 @@
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
-      <c r="U87" s="2">
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2">
         <v>-122</v>
       </c>
-      <c r="V87" s="2">
+      <c r="Z87" s="2">
         <v>-91</v>
       </c>
-      <c r="W87" s="2">
+      <c r="AA87" s="2">
         <v>-152</v>
       </c>
-      <c r="X87" s="2">
+      <c r="AB87" s="2">
         <v>-204</v>
       </c>
-      <c r="Y87" s="2">
+      <c r="AC87" s="2">
         <v>-175</v>
       </c>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>102</v>
       </c>
@@ -6198,23 +6634,27 @@
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
-      <c r="U88" s="2">
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2">
         <v>-1192</v>
       </c>
-      <c r="V88" s="2">
+      <c r="Z88" s="2">
         <v>-1207</v>
       </c>
-      <c r="W88" s="2">
+      <c r="AA88" s="2">
         <v>-729</v>
       </c>
-      <c r="X88" s="2">
+      <c r="AB88" s="2">
         <v>-1300</v>
       </c>
-      <c r="Y88" s="2">
+      <c r="AC88" s="2">
         <v>-1295</v>
       </c>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>37</v>
       </c>
@@ -6225,23 +6665,27 @@
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
-      <c r="U89" s="2">
-        <v>0</v>
-      </c>
-      <c r="V89" s="2">
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="2">
         <v>-122</v>
       </c>
-      <c r="W89" s="2">
-        <v>0</v>
-      </c>
-      <c r="X89" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AA89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>103</v>
       </c>
@@ -6252,28 +6696,32 @@
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
-      <c r="U90" s="13">
-        <f>SUM(U83:U89)</f>
-        <v>-1253</v>
-      </c>
-      <c r="V90" s="13">
-        <f>SUM(V83:V89)</f>
-        <v>-1358</v>
-      </c>
-      <c r="W90" s="13">
-        <f>SUM(W83:W89)</f>
-        <v>-15</v>
-      </c>
-      <c r="X90" s="13">
-        <f>SUM(X83:X89)</f>
-        <v>-1620</v>
-      </c>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
       <c r="Y90" s="13">
         <f>SUM(Y83:Y89)</f>
+        <v>-1253</v>
+      </c>
+      <c r="Z90" s="13">
+        <f>SUM(Z83:Z89)</f>
+        <v>-1358</v>
+      </c>
+      <c r="AA90" s="13">
+        <f>SUM(AA83:AA89)</f>
+        <v>-15</v>
+      </c>
+      <c r="AB90" s="13">
+        <f>SUM(AB83:AB89)</f>
+        <v>-1620</v>
+      </c>
+      <c r="AC90" s="13">
+        <f>SUM(AC83:AC89)</f>
         <v>-1600</v>
       </c>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:29" x14ac:dyDescent="0.25">
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -6286,8 +6734,12 @@
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
-    </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z91" s="2"/>
+      <c r="AA91" s="2"/>
+      <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
+    </row>
+    <row r="92" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>104</v>
       </c>
@@ -6298,23 +6750,27 @@
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
-      <c r="U92" s="2">
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2">
         <v>-13</v>
       </c>
-      <c r="V92" s="2">
+      <c r="Z92" s="2">
         <v>-22</v>
       </c>
-      <c r="W92" s="2">
+      <c r="AA92" s="2">
         <v>78</v>
       </c>
-      <c r="X92" s="2">
+      <c r="AB92" s="2">
         <v>-3</v>
       </c>
-      <c r="Y92" s="2">
+      <c r="AC92" s="2">
         <v>-41</v>
       </c>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:29" x14ac:dyDescent="0.25">
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -6327,8 +6783,12 @@
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
-    </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z93" s="2"/>
+      <c r="AA93" s="2"/>
+      <c r="AB93" s="2"/>
+      <c r="AC93" s="2"/>
+    </row>
+    <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>105</v>
       </c>
@@ -6339,28 +6799,32 @@
       <c r="R94" s="2"/>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
-      <c r="U94" s="13">
-        <f t="shared" ref="U94:X94" si="50">U77+U82+U90+U92</f>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="13">
+        <f t="shared" ref="Y94:AB94" si="54">Y77+Y82+Y90+Y92</f>
         <v>450</v>
       </c>
-      <c r="V94" s="13">
-        <f t="shared" si="50"/>
+      <c r="Z94" s="13">
+        <f t="shared" si="54"/>
         <v>-940</v>
       </c>
-      <c r="W94" s="13">
-        <f t="shared" si="50"/>
+      <c r="AA94" s="13">
+        <f t="shared" si="54"/>
         <v>1499</v>
       </c>
-      <c r="X94" s="13">
-        <f t="shared" si="50"/>
+      <c r="AB94" s="13">
+        <f t="shared" si="54"/>
         <v>-2528</v>
       </c>
-      <c r="Y94" s="13">
-        <f>Y77+Y82+Y90+Y92</f>
+      <c r="AC94" s="13">
+        <f>AC77+AC82+AC90+AC92</f>
         <v>-308</v>
       </c>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -6368,8 +6832,12 @@
       <c r="R95" s="2"/>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
-    </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+    </row>
+    <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -6377,8 +6845,12 @@
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
-    </row>
-    <row r="97" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+    </row>
+    <row r="97" spans="14:24" x14ac:dyDescent="0.25">
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -6386,8 +6858,12 @@
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
-    </row>
-    <row r="98" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+    </row>
+    <row r="98" spans="14:24" x14ac:dyDescent="0.25">
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -6395,8 +6871,12 @@
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
-    </row>
-    <row r="99" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+    </row>
+    <row r="99" spans="14:24" x14ac:dyDescent="0.25">
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -6404,8 +6884,12 @@
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
-    </row>
-    <row r="100" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+    </row>
+    <row r="100" spans="14:24" x14ac:dyDescent="0.25">
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -6413,8 +6897,12 @@
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
-    </row>
-    <row r="101" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+    </row>
+    <row r="101" spans="14:24" x14ac:dyDescent="0.25">
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -6422,8 +6910,12 @@
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
-    </row>
-    <row r="102" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
+    </row>
+    <row r="102" spans="14:24" x14ac:dyDescent="0.25">
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -6431,8 +6923,12 @@
       <c r="R102" s="2"/>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
-    </row>
-    <row r="103" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+    </row>
+    <row r="103" spans="14:24" x14ac:dyDescent="0.25">
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -6440,8 +6936,12 @@
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
-    </row>
-    <row r="104" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+    </row>
+    <row r="104" spans="14:24" x14ac:dyDescent="0.25">
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -6449,8 +6949,12 @@
       <c r="R104" s="2"/>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
-    </row>
-    <row r="105" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="2"/>
+    </row>
+    <row r="105" spans="14:24" x14ac:dyDescent="0.25">
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -6458,8 +6962,12 @@
       <c r="R105" s="2"/>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
-    </row>
-    <row r="106" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
+    </row>
+    <row r="106" spans="14:24" x14ac:dyDescent="0.25">
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -6467,8 +6975,12 @@
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
-    </row>
-    <row r="107" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+    </row>
+    <row r="107" spans="14:24" x14ac:dyDescent="0.25">
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
@@ -6476,8 +6988,12 @@
       <c r="R107" s="2"/>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
-    </row>
-    <row r="108" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="2"/>
+    </row>
+    <row r="108" spans="14:24" x14ac:dyDescent="0.25">
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
@@ -6485,8 +7001,12 @@
       <c r="R108" s="2"/>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
-    </row>
-    <row r="109" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+    </row>
+    <row r="109" spans="14:24" x14ac:dyDescent="0.25">
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -6494,8 +7014,12 @@
       <c r="R109" s="2"/>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
-    </row>
-    <row r="110" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="2"/>
+    </row>
+    <row r="110" spans="14:24" x14ac:dyDescent="0.25">
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
@@ -6503,6 +7027,10 @@
       <c r="R110" s="2"/>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/EA.xlsx
+++ b/EA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF9179D-44B9-4149-88E3-F2E1C256AAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F47797A-7BA0-4D04-9742-5DF85225D892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{F089119D-C533-4882-8691-8919155D0128}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{F089119D-C533-4882-8691-8919155D0128}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="129">
   <si>
     <t>EA</t>
   </si>
@@ -400,6 +400,30 @@
   </si>
   <si>
     <t>FQ126</t>
+  </si>
+  <si>
+    <t>https://ir.ea.com/press-releases/press-release-details/2025/EA-Announces-Agreement-to-be-Acquired-by-PIF-Silver-Lake-and-Affinity-Partners-for-55-Billion/default.aspx</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>EA will be acquired by a consortium of PIF, Silver Lake and Affinity Partners for 55$ Billion USD</t>
+  </si>
+  <si>
+    <t>210$ per share</t>
+  </si>
+  <si>
+    <t>is expected to close in Q1 FY27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equity investments of 36$ Billion USD and 20$ Billion in Debt -&gt; led by JP Morgan </t>
+  </si>
+  <si>
+    <t>PIF is the state fund of Saudi Arabia, Affinity Partners was founded by Jared Kushner</t>
+  </si>
+  <si>
+    <t>biggest LBO of all time</t>
   </si>
 </sst>
 </file>
@@ -410,13 +434,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.0;[Red]#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -460,6 +490,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -486,33 +524,35 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -849,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C422843-3A84-4BDD-8240-E5E287C18BF5}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -861,12 +901,12 @@
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -874,10 +914,10 @@
         <v>3</v>
       </c>
       <c r="I2" s="4">
-        <v>173.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
@@ -887,8 +927,9 @@
       <c r="J3" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -897,11 +938,11 @@
       </c>
       <c r="I4" s="16">
         <f>+I2*I3</f>
-        <v>43360.925609900005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+        <v>50674.485076589997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -915,7 +956,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
@@ -926,16 +967,59 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="16">
         <f>+I4-I5+I6</f>
-        <v>42130.925609900005</v>
+        <v>49444.485076589997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{D6BC1A93-9998-479D-84D6-83A9EFD135FC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -945,10 +1029,10 @@
   <dimension ref="A1:AJ110"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
